--- a/capiq_data/in_process_data/IQ294550.xlsx
+++ b/capiq_data/in_process_data/IQ294550.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDF85F9-5E6D-4D41-9107-9CE93A5415BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEB5E4E-FDAB-42F7-A482-31B0A50A1030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1c49b015-ee30-4937-a816-4d92a13f086e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"0ca2be8d-9357-45c8-aab8-149632873abc"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>-165.428</v>
+        <v>85.593000000000004</v>
       </c>
       <c r="D2">
-        <v>1185.27</v>
+        <v>1393.6790000000001</v>
       </c>
       <c r="E2">
-        <v>204.029</v>
+        <v>83.147000000000006</v>
       </c>
       <c r="F2">
-        <v>146.98099999999999</v>
+        <v>158.76300000000001</v>
       </c>
       <c r="G2">
-        <v>7038.777</v>
+        <v>2423.2269999999999</v>
       </c>
       <c r="H2">
-        <v>7699.3760000000002</v>
+        <v>2886.4830000000002</v>
       </c>
       <c r="I2">
-        <v>162.87200000000001</v>
+        <v>109.705</v>
       </c>
       <c r="J2">
-        <v>3377.768</v>
+        <v>677.60199999999998</v>
       </c>
       <c r="K2">
-        <v>63.594000000000001</v>
+        <v>353.81400000000002</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1537.51</v>
+        <v>960.95</v>
       </c>
       <c r="O2">
-        <v>5564.2089999999998</v>
+        <v>1638.5519999999999</v>
       </c>
       <c r="P2">
-        <v>3455.2620000000002</v>
+        <v>1031.4159999999999</v>
       </c>
       <c r="Q2">
-        <v>-1142.0450000000001</v>
+        <v>151.6</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4363</v>
+        <v>5200</v>
       </c>
       <c r="T2">
-        <v>2135.1669999999999</v>
+        <v>1247.931</v>
       </c>
       <c r="U2">
-        <v>1483.39</v>
+        <v>183.98500000000001</v>
       </c>
       <c r="V2">
-        <v>-207.72900000000001</v>
+        <v>100.91800000000001</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
       <c r="X2">
-        <v>-934.14300000000003</v>
+        <v>52.024999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-165.428</v>
+        <v>85.593000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-39.526000000000003</v>
+        <v>39.371000000000002</v>
       </c>
       <c r="D3">
-        <v>805.202</v>
+        <v>840.47500000000002</v>
       </c>
       <c r="E3">
-        <v>12.473000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="F3">
-        <v>98.882999999999996</v>
+        <v>72.134</v>
       </c>
       <c r="G3">
-        <v>6531.3180000000002</v>
+        <v>2514.8989999999999</v>
       </c>
       <c r="H3">
-        <v>7516.6289999999999</v>
+        <v>3042.9110000000001</v>
       </c>
       <c r="I3">
-        <v>177.643</v>
+        <v>550.39300000000003</v>
       </c>
       <c r="J3">
-        <v>3380.98</v>
+        <v>886.23699999999997</v>
       </c>
       <c r="K3">
-        <v>28.423999999999999</v>
+        <v>309.89499999999998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-13.311999999999999</v>
+        <v>-39.439</v>
       </c>
       <c r="N3">
-        <v>1881.787</v>
+        <v>861.06299999999999</v>
       </c>
       <c r="O3">
-        <v>5416.4889999999996</v>
+        <v>1747.3</v>
       </c>
       <c r="P3">
-        <v>3409.404</v>
+        <v>1196.1320000000001</v>
       </c>
       <c r="Q3">
-        <v>-177.96799999999999</v>
+        <v>15.358000000000001</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2100.14</v>
+        <v>1295.6110000000001</v>
       </c>
       <c r="U3">
-        <v>1292.9490000000001</v>
+        <v>199.34299999999999</v>
       </c>
       <c r="V3">
-        <v>-49.640999999999998</v>
+        <v>-162.93199999999999</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-1.6950000000000001</v>
       </c>
       <c r="X3">
-        <v>-14.281000000000001</v>
+        <v>180.17599999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-0.94699999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-39.526000000000003</v>
+        <v>39.371000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-55.384999999999998</v>
+        <v>59.793999999999997</v>
       </c>
       <c r="D4">
-        <v>927.21199999999999</v>
+        <v>1058.722</v>
       </c>
       <c r="E4">
-        <v>13.634</v>
+        <v>47.603999999999999</v>
       </c>
       <c r="F4">
-        <v>97.774000000000001</v>
+        <v>108.55</v>
       </c>
       <c r="G4">
-        <v>6482.4139999999998</v>
+        <v>2642.873</v>
       </c>
       <c r="H4">
-        <v>7425.6049999999996</v>
+        <v>3227.5650000000001</v>
       </c>
       <c r="I4">
-        <v>191.91200000000001</v>
+        <v>629.40200000000004</v>
       </c>
       <c r="J4">
-        <v>3332.2629999999999</v>
+        <v>884.91800000000001</v>
       </c>
       <c r="K4">
-        <v>26.940999999999999</v>
+        <v>317.77100000000002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1886.345</v>
+        <v>983.27700000000004</v>
       </c>
       <c r="O4">
-        <v>5375.8779999999997</v>
+        <v>1868.1949999999999</v>
       </c>
       <c r="P4">
-        <v>3359.2040000000002</v>
+        <v>1202.6890000000001</v>
       </c>
       <c r="Q4">
-        <v>-216.565</v>
+        <v>-97.537999999999997</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2049.7269999999999</v>
+        <v>1359.37</v>
       </c>
       <c r="U4">
-        <v>1075.223</v>
+        <v>101.80500000000001</v>
       </c>
       <c r="V4">
-        <v>-169.68600000000001</v>
+        <v>-98.14</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-1.6870000000000001</v>
       </c>
       <c r="X4">
-        <v>-56.506</v>
+        <v>-4.7E-2</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.619</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>-55.384999999999998</v>
+        <v>59.793999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-129.298</v>
+        <v>82.787000000000006</v>
       </c>
       <c r="D5">
-        <v>1141.931</v>
+        <v>1484.819</v>
       </c>
       <c r="E5">
-        <v>16.529</v>
+        <v>60.215000000000003</v>
       </c>
       <c r="F5">
-        <v>179.40799999999999</v>
+        <v>151.02000000000001</v>
       </c>
       <c r="G5">
-        <v>6594.3180000000002</v>
+        <v>4424.4080000000004</v>
       </c>
       <c r="H5">
-        <v>7228.6540000000005</v>
+        <v>5721.3649999999998</v>
       </c>
       <c r="I5">
-        <v>177.31100000000001</v>
+        <v>1090.152</v>
       </c>
       <c r="J5">
-        <v>3238.4079999999999</v>
+        <v>1894.8779999999999</v>
       </c>
       <c r="K5">
-        <v>47.645000000000003</v>
+        <v>500.27300000000002</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1948.3440000000001</v>
+        <v>1656.604</v>
       </c>
       <c r="O5">
-        <v>5305.1869999999999</v>
+        <v>3551.482</v>
       </c>
       <c r="P5">
-        <v>3383.0079999999998</v>
+        <v>2395.1509999999998</v>
       </c>
       <c r="Q5">
-        <v>70.185000000000002</v>
+        <v>-42.051000000000002</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1923.4670000000001</v>
+        <v>2169.8829999999998</v>
       </c>
       <c r="U5">
-        <v>1142.5129999999999</v>
+        <v>59.753999999999998</v>
       </c>
       <c r="V5">
-        <v>59.360999999999997</v>
+        <v>-157.84299999999999</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-2.3559999999999999</v>
       </c>
       <c r="X5">
-        <v>0.41499999999999998</v>
+        <v>107.64</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-3.3000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-129.298</v>
+        <v>82.787000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>13.821</v>
+        <v>119.441</v>
       </c>
       <c r="D6">
-        <v>1262.345</v>
+        <v>2005.2449999999999</v>
       </c>
       <c r="E6">
-        <v>107.73699999999999</v>
+        <v>69.631</v>
       </c>
       <c r="F6">
-        <v>145.16800000000001</v>
+        <v>210.471</v>
       </c>
       <c r="G6">
-        <v>6540.74</v>
+        <v>4410.9989999999998</v>
       </c>
       <c r="H6">
-        <v>6885.62</v>
+        <v>5710.893</v>
       </c>
       <c r="I6">
-        <v>148.06700000000001</v>
+        <v>214.61600000000001</v>
       </c>
       <c r="J6">
-        <v>2991.549</v>
+        <v>1722.864</v>
       </c>
       <c r="K6">
-        <v>48.38</v>
+        <v>642.904</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1361.11</v>
+        <v>1511.152</v>
       </c>
       <c r="O6">
-        <v>4947.0050000000001</v>
+        <v>3434.2280000000001</v>
       </c>
       <c r="P6">
-        <v>3136.7240000000002</v>
+        <v>2365.768</v>
       </c>
       <c r="Q6">
-        <v>-75.971000000000004</v>
+        <v>12.39</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>3579</v>
+        <v>9400</v>
       </c>
       <c r="T6">
-        <v>1938.615</v>
+        <v>2276.665</v>
       </c>
       <c r="U6">
-        <v>1083.0709999999999</v>
+        <v>72.144000000000005</v>
       </c>
       <c r="V6">
-        <v>177.245</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-2.3719999999999999</v>
       </c>
       <c r="X6">
-        <v>-253.59700000000001</v>
+        <v>9.3620000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-0.71099999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>13.821</v>
+        <v>119.441</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-11.666</v>
+        <v>68.111999999999995</v>
       </c>
       <c r="D7">
-        <v>881.03599999999994</v>
+        <v>1378.741</v>
       </c>
       <c r="E7">
-        <v>34.488</v>
+        <v>28.373999999999999</v>
       </c>
       <c r="F7">
-        <v>118.639</v>
+        <v>124.95699999999999</v>
       </c>
       <c r="G7">
-        <v>6276.0860000000002</v>
+        <v>4339.4949999999999</v>
       </c>
       <c r="H7">
-        <v>6859.4430000000002</v>
+        <v>5608.0280000000002</v>
       </c>
       <c r="I7">
-        <v>136.959</v>
+        <v>987.78499999999997</v>
       </c>
       <c r="J7">
-        <v>2931.62</v>
+        <v>1722.605</v>
       </c>
       <c r="K7">
-        <v>33.65</v>
+        <v>497.76400000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-155.62200000000001</v>
       </c>
       <c r="N7">
-        <v>1890.0150000000001</v>
+        <v>1508.973</v>
       </c>
       <c r="O7">
-        <v>4930.6149999999998</v>
+        <v>3231.578</v>
       </c>
       <c r="P7">
-        <v>3124.596</v>
+        <v>2220.3690000000001</v>
       </c>
       <c r="Q7">
-        <v>128.66399999999999</v>
+        <v>-12.372</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1928.828</v>
+        <v>2376.4499999999998</v>
       </c>
       <c r="U7">
-        <v>1211.7349999999999</v>
+        <v>59.771999999999998</v>
       </c>
       <c r="V7">
-        <v>114.69</v>
+        <v>98.415999999999997</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-2.4220000000000002</v>
       </c>
       <c r="X7">
-        <v>1.075</v>
+        <v>-102.438</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-4.9000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-11.666</v>
+        <v>68.111999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>42.436</v>
+        <v>90.203000000000003</v>
       </c>
       <c r="D8">
-        <v>1069.405</v>
+        <v>1685.5630000000001</v>
       </c>
       <c r="E8">
-        <v>34.323999999999998</v>
+        <v>40.109000000000002</v>
       </c>
       <c r="F8">
-        <v>175.30699999999999</v>
+        <v>161.18700000000001</v>
       </c>
       <c r="G8">
-        <v>6394.3649999999998</v>
+        <v>4784.2780000000002</v>
       </c>
       <c r="H8">
-        <v>6952.8249999999998</v>
+        <v>6107.1629999999996</v>
       </c>
       <c r="I8">
-        <v>179.07400000000001</v>
+        <v>1173.087</v>
       </c>
       <c r="J8">
-        <v>2969.9679999999998</v>
+        <v>1949.2650000000001</v>
       </c>
       <c r="K8">
-        <v>35.18</v>
+        <v>428.73099999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1890.49</v>
+        <v>1689.9</v>
       </c>
       <c r="O8">
-        <v>4977.7780000000002</v>
+        <v>3639.165</v>
       </c>
       <c r="P8">
-        <v>3164.364</v>
+        <v>2377.9960000000001</v>
       </c>
       <c r="Q8">
-        <v>98.742999999999995</v>
+        <v>152.995</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1975.047</v>
+        <v>2467.998</v>
       </c>
       <c r="U8">
-        <v>1310.4780000000001</v>
+        <v>212.767</v>
       </c>
       <c r="V8">
-        <v>96.85</v>
+        <v>-1.75</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>-2.444</v>
       </c>
       <c r="X8">
-        <v>-1.583</v>
+        <v>158.559</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.887</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>42.436</v>
+        <v>90.203000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>116.633</v>
+        <v>123.446</v>
       </c>
       <c r="D9">
-        <v>1302.5909999999999</v>
+        <v>1859.5060000000001</v>
       </c>
       <c r="E9">
-        <v>34.805</v>
+        <v>44.613</v>
       </c>
       <c r="F9">
-        <v>239.80099999999999</v>
+        <v>198.834</v>
       </c>
       <c r="G9">
-        <v>6581.7420000000002</v>
+        <v>5024.9110000000001</v>
       </c>
       <c r="H9">
-        <v>7140.58</v>
+        <v>6319.1570000000002</v>
       </c>
       <c r="I9">
-        <v>172.256</v>
+        <v>1263.3869999999999</v>
       </c>
       <c r="J9">
-        <v>2972.8150000000001</v>
+        <v>1918.364</v>
       </c>
       <c r="K9">
-        <v>38.076000000000001</v>
+        <v>463.53</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1923.575</v>
+        <v>1807.8889999999999</v>
       </c>
       <c r="O9">
-        <v>5018.5339999999997</v>
+        <v>3726.2530000000002</v>
       </c>
       <c r="P9">
-        <v>3176.6260000000002</v>
+        <v>2381.8939999999998</v>
       </c>
       <c r="Q9">
-        <v>253.173</v>
+        <v>-0.69</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2122.0459999999998</v>
+        <v>2592.904</v>
       </c>
       <c r="U9">
-        <v>1563.6510000000001</v>
+        <v>212.077</v>
       </c>
       <c r="V9">
-        <v>209.69200000000001</v>
+        <v>-2.9369999999999998</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-2.448</v>
       </c>
       <c r="X9">
-        <v>37.485999999999997</v>
+        <v>-17.321000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-0.40799999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>116.633</v>
+        <v>123.446</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>58.741999999999997</v>
+        <v>171.88399999999999</v>
       </c>
       <c r="D10">
-        <v>1566.9659999999999</v>
+        <v>2548.009</v>
       </c>
       <c r="E10">
-        <v>123.268</v>
+        <v>60.640999999999998</v>
       </c>
       <c r="F10">
-        <v>237.512</v>
+        <v>300.27</v>
       </c>
       <c r="G10">
-        <v>6408.4560000000001</v>
+        <v>5567.7449999999999</v>
       </c>
       <c r="H10">
-        <v>6734.4089999999997</v>
+        <v>6872.0870000000004</v>
       </c>
       <c r="I10">
-        <v>136.221</v>
+        <v>194.84100000000001</v>
       </c>
       <c r="J10">
-        <v>2509.6129999999998</v>
+        <v>1913.268</v>
       </c>
       <c r="K10">
-        <v>42.052999999999997</v>
+        <v>741.43299999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1385.328</v>
+        <v>1932.576</v>
       </c>
       <c r="O10">
-        <v>4544.7929999999997</v>
+        <v>4111.6610000000001</v>
       </c>
       <c r="P10">
-        <v>2690.57</v>
+        <v>2654.701</v>
       </c>
       <c r="Q10">
-        <v>-158.89099999999999</v>
+        <v>401.09100000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3634</v>
+        <v>9200</v>
       </c>
       <c r="T10">
-        <v>2189.616</v>
+        <v>2760.4259999999999</v>
       </c>
       <c r="U10">
-        <v>1404.76</v>
+        <v>613.16800000000001</v>
       </c>
       <c r="V10">
-        <v>338.90800000000002</v>
+        <v>55.064999999999998</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>-2.4590000000000001</v>
       </c>
       <c r="X10">
-        <v>-485.13499999999999</v>
+        <v>335.16500000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-14.856999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>58.741999999999997</v>
+        <v>171.88399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>81.762</v>
+        <v>86.137</v>
       </c>
       <c r="D11">
-        <v>1162.7560000000001</v>
+        <v>1552.59</v>
       </c>
       <c r="E11">
-        <v>31.884</v>
+        <v>49.753999999999998</v>
       </c>
       <c r="F11">
-        <v>216.708</v>
+        <v>147.423</v>
       </c>
       <c r="G11">
-        <v>6168.16</v>
+        <v>5522.6890000000003</v>
       </c>
       <c r="H11">
-        <v>6741.1409999999996</v>
+        <v>6802.88</v>
       </c>
       <c r="I11">
-        <v>142.02000000000001</v>
+        <v>1248.47</v>
       </c>
       <c r="J11">
-        <v>2323.7559999999999</v>
+        <v>1934.8820000000001</v>
       </c>
       <c r="K11">
-        <v>34.676000000000002</v>
+        <v>471.79199999999997</v>
       </c>
       <c r="L11">
-        <v>-82.164000000000001</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.21299999999999999</v>
+        <v>-257.48899999999998</v>
       </c>
       <c r="N11">
-        <v>2015.8009999999999</v>
+        <v>2036.94</v>
       </c>
       <c r="O11">
-        <v>4465.6260000000002</v>
+        <v>3971.8220000000001</v>
       </c>
       <c r="P11">
-        <v>2603.2539999999999</v>
+        <v>2681.674</v>
       </c>
       <c r="Q11">
-        <v>188.16399999999999</v>
+        <v>-133.59100000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2275.5149999999999</v>
+        <v>2831.058</v>
       </c>
       <c r="U11">
-        <v>1592.924</v>
+        <v>479.577</v>
       </c>
       <c r="V11">
-        <v>270.62</v>
+        <v>-154.96700000000001</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-2.4409999999999998</v>
       </c>
       <c r="X11">
-        <v>-81.266999999999996</v>
+        <v>22.023</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-0.39300000000000002</v>
+        <v>6.8079999999999998</v>
       </c>
       <c r="AA11">
-        <v>81.762</v>
+        <v>86.137</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>36.417000000000002</v>
+        <v>121.717</v>
       </c>
       <c r="D12">
-        <v>1279.422</v>
+        <v>1958.1849999999999</v>
       </c>
       <c r="E12">
-        <v>32.313000000000002</v>
+        <v>71.27</v>
       </c>
       <c r="F12">
-        <v>244.89099999999999</v>
+        <v>216.67599999999999</v>
       </c>
       <c r="G12">
-        <v>5870.9759999999997</v>
+        <v>5912.3549999999996</v>
       </c>
       <c r="H12">
-        <v>6452.2709999999997</v>
+        <v>7329.0159999999996</v>
       </c>
       <c r="I12">
-        <v>169.51599999999999</v>
+        <v>1429.277</v>
       </c>
       <c r="J12">
-        <v>2082.0619999999999</v>
+        <v>2269.9549999999999</v>
       </c>
       <c r="K12">
-        <v>38.234000000000002</v>
+        <v>590.01400000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1874.9179999999999</v>
+        <v>2074.9810000000002</v>
       </c>
       <c r="O12">
-        <v>4124.0559999999996</v>
+        <v>4344.9359999999997</v>
       </c>
       <c r="P12">
-        <v>2181.7890000000002</v>
+        <v>2859.9690000000001</v>
       </c>
       <c r="Q12">
-        <v>-380.25599999999997</v>
+        <v>-88.49</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2328.2150000000001</v>
+        <v>2984.08</v>
       </c>
       <c r="U12">
-        <v>1212.6679999999999</v>
+        <v>391.08699999999999</v>
       </c>
       <c r="V12">
-        <v>64.444999999999993</v>
+        <v>-168.887</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-2.444</v>
       </c>
       <c r="X12">
-        <v>-438.51499999999999</v>
+        <v>90.837000000000003</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.214</v>
+        <v>-2.2370000000000001</v>
       </c>
       <c r="AA12">
-        <v>36.417000000000002</v>
+        <v>121.717</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>2281.884</v>
+        <v>168.886</v>
       </c>
       <c r="D13">
-        <v>1582.078</v>
+        <v>2399.8029999999999</v>
       </c>
       <c r="E13">
-        <v>32.634999999999998</v>
+        <v>62.985999999999997</v>
       </c>
       <c r="F13">
-        <v>328.8</v>
+        <v>267.54399999999998</v>
       </c>
       <c r="G13">
-        <v>5977.3940000000002</v>
+        <v>6367.0559999999996</v>
       </c>
       <c r="H13">
-        <v>8693.7219999999998</v>
+        <v>7874.2030000000004</v>
       </c>
       <c r="I13">
-        <v>176.60300000000001</v>
+        <v>1645.819</v>
       </c>
       <c r="J13">
-        <v>2056.6570000000002</v>
+        <v>2254.0549999999998</v>
       </c>
       <c r="K13">
-        <v>37.494999999999997</v>
+        <v>693.423</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1971.7149999999999</v>
+        <v>2466.8879999999999</v>
       </c>
       <c r="O13">
-        <v>4202.0370000000003</v>
+        <v>4720.9430000000002</v>
       </c>
       <c r="P13">
-        <v>2209.5859999999998</v>
+        <v>2947.4780000000001</v>
       </c>
       <c r="Q13">
-        <v>137.32599999999999</v>
+        <v>-78.936000000000007</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4491.6850000000004</v>
+        <v>3153.26</v>
       </c>
       <c r="U13">
-        <v>1349.9939999999999</v>
+        <v>312.15100000000001</v>
       </c>
       <c r="V13">
-        <v>219.88499999999999</v>
+        <v>-136.541</v>
       </c>
       <c r="W13">
-        <v>-19.317</v>
+        <v>-2.4729999999999999</v>
       </c>
       <c r="X13">
-        <v>-71.843000000000004</v>
+        <v>51.554000000000002</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-0.25</v>
+        <v>20.074999999999999</v>
       </c>
       <c r="AA13">
-        <v>2281.884</v>
+        <v>168.886</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>220.053</v>
+        <v>247.89400000000001</v>
       </c>
       <c r="D14">
-        <v>1655.3389999999999</v>
+        <v>3101.3359999999998</v>
       </c>
       <c r="E14">
-        <v>32.944000000000003</v>
+        <v>122.271</v>
       </c>
       <c r="F14">
-        <v>388.55</v>
+        <v>411.84</v>
       </c>
       <c r="G14">
-        <v>6330.3280000000004</v>
+        <v>6576.4120000000003</v>
       </c>
       <c r="H14">
-        <v>8734.143</v>
+        <v>8072.1509999999998</v>
       </c>
       <c r="I14">
-        <v>166.90899999999999</v>
+        <v>229.96700000000001</v>
       </c>
       <c r="J14">
-        <v>2065.6889999999999</v>
+        <v>2150.9720000000002</v>
       </c>
       <c r="K14">
-        <v>35.826999999999998</v>
+        <v>701.96799999999996</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1467.173</v>
+        <v>2078.4290000000001</v>
       </c>
       <c r="O14">
-        <v>4085.1909999999998</v>
+        <v>4624.0280000000002</v>
       </c>
       <c r="P14">
-        <v>2207.7530000000002</v>
+        <v>2852.94</v>
       </c>
       <c r="Q14">
-        <v>230.33500000000001</v>
+        <v>92.272999999999996</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3843</v>
+        <v>10800</v>
       </c>
       <c r="T14">
-        <v>4648.9520000000002</v>
+        <v>3448.123</v>
       </c>
       <c r="U14">
-        <v>1580.329</v>
+        <v>401.88299999999998</v>
       </c>
       <c r="V14">
-        <v>326.18599999999998</v>
+        <v>129.1</v>
       </c>
       <c r="W14">
-        <v>-19.065000000000001</v>
+        <v>-6.2539999999999996</v>
       </c>
       <c r="X14">
-        <v>-67.965000000000003</v>
+        <v>-35.551000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.18099999999999999</v>
+        <v>5.133</v>
       </c>
       <c r="AA14">
-        <v>220.053</v>
+        <v>247.89400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>74.819000000000003</v>
+        <v>131.62899999999999</v>
       </c>
       <c r="D15">
-        <v>1118.894</v>
+        <v>2031.732</v>
       </c>
       <c r="E15">
-        <v>29.773</v>
+        <v>70.617000000000004</v>
       </c>
       <c r="F15">
-        <v>281.97899999999998</v>
+        <v>228.17500000000001</v>
       </c>
       <c r="G15">
-        <v>5695.384</v>
+        <v>6848.6980000000003</v>
       </c>
       <c r="H15">
-        <v>8351.4110000000001</v>
+        <v>8354.1270000000004</v>
       </c>
       <c r="I15">
-        <v>178.50200000000001</v>
+        <v>1821.7639999999999</v>
       </c>
       <c r="J15">
-        <v>1814.0409999999999</v>
+        <v>2573.6329999999998</v>
       </c>
       <c r="K15">
-        <v>26.731999999999999</v>
+        <v>255.738</v>
       </c>
       <c r="L15">
-        <v>-69.828000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-250.01300000000001</v>
+        <v>-304.37599999999998</v>
       </c>
       <c r="N15">
-        <v>1704.7339999999999</v>
+        <v>2115.7860000000001</v>
       </c>
       <c r="O15">
-        <v>3687.348</v>
+        <v>4729.3959999999997</v>
       </c>
       <c r="P15">
-        <v>1876.903</v>
+        <v>2829.3710000000001</v>
       </c>
       <c r="Q15">
-        <v>-312.16699999999997</v>
+        <v>61.533000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4664.0630000000001</v>
+        <v>3624.7310000000002</v>
       </c>
       <c r="U15">
-        <v>1268.162</v>
+        <v>464.41399999999999</v>
       </c>
       <c r="V15">
-        <v>91.396000000000001</v>
+        <v>-117.746</v>
       </c>
       <c r="W15">
-        <v>-19.065000000000001</v>
+        <v>-6.274</v>
       </c>
       <c r="X15">
-        <v>-383.71600000000001</v>
+        <v>212.85499999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>6.3760000000000003</v>
+        <v>-25.196000000000002</v>
       </c>
       <c r="AA15">
-        <v>74.819000000000003</v>
+        <v>131.62899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>41.88</v>
+        <v>187.60300000000001</v>
       </c>
       <c r="D16">
-        <v>1286.1869999999999</v>
+        <v>2515.1579999999999</v>
       </c>
       <c r="E16">
-        <v>30.024999999999999</v>
+        <v>80.786000000000001</v>
       </c>
       <c r="F16">
-        <v>304.57299999999998</v>
+        <v>318.63200000000001</v>
       </c>
       <c r="G16">
-        <v>5809.6589999999997</v>
+        <v>7307.14</v>
       </c>
       <c r="H16">
-        <v>8467.3359999999993</v>
+        <v>8944.6880000000001</v>
       </c>
       <c r="I16">
-        <v>216.768</v>
+        <v>2007.279</v>
       </c>
       <c r="J16">
-        <v>1580.779</v>
+        <v>2573.9250000000002</v>
       </c>
       <c r="K16">
-        <v>37.146999999999998</v>
+        <v>417.21899999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2041.5219999999999</v>
+        <v>2533.6610000000001</v>
       </c>
       <c r="O16">
-        <v>3829.2919999999999</v>
+        <v>5133.3389999999999</v>
       </c>
       <c r="P16">
-        <v>1911.453</v>
+        <v>2991.1439999999998</v>
       </c>
       <c r="Q16">
-        <v>-97.227999999999994</v>
+        <v>-373.96499999999997</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4638.0439999999999</v>
+        <v>3811.3490000000002</v>
       </c>
       <c r="U16">
-        <v>1170.934</v>
+        <v>90.317999999999998</v>
       </c>
       <c r="V16">
-        <v>-17.114000000000001</v>
+        <v>-370.55500000000001</v>
       </c>
       <c r="W16">
-        <v>-19.087</v>
+        <v>-6.4050000000000002</v>
       </c>
       <c r="X16">
-        <v>-39.649000000000001</v>
+        <v>107.414</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1.1919999999999999</v>
+        <v>-87.248000000000005</v>
       </c>
       <c r="AA16">
-        <v>41.88</v>
+        <v>187.60300000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>140.54499999999999</v>
+        <v>269.93599999999998</v>
       </c>
       <c r="D17">
-        <v>1594.7249999999999</v>
+        <v>2959.8049999999998</v>
       </c>
       <c r="E17">
-        <v>30.178999999999998</v>
+        <v>118.94499999999999</v>
       </c>
       <c r="F17">
-        <v>373.24200000000002</v>
+        <v>429.19799999999998</v>
       </c>
       <c r="G17">
-        <v>6045.1729999999998</v>
+        <v>8317.5329999999994</v>
       </c>
       <c r="H17">
-        <v>8614.6450000000004</v>
+        <v>10087.06</v>
       </c>
       <c r="I17">
-        <v>256.36799999999999</v>
+        <v>2134.2640000000001</v>
       </c>
       <c r="J17">
-        <v>1817.0540000000001</v>
+        <v>2861.2150000000001</v>
       </c>
       <c r="K17">
-        <v>42.636000000000003</v>
+        <v>854.33799999999997</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1894.6310000000001</v>
+        <v>3110.2049999999999</v>
       </c>
       <c r="O17">
-        <v>3904.2359999999999</v>
+        <v>5984.45</v>
       </c>
       <c r="P17">
-        <v>1931.5329999999999</v>
+        <v>3715.5529999999999</v>
       </c>
       <c r="Q17">
-        <v>50.883000000000003</v>
+        <v>25.05</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4710.4089999999997</v>
+        <v>4102.6099999999997</v>
       </c>
       <c r="U17">
-        <v>1221.817</v>
+        <v>116.411</v>
       </c>
       <c r="V17">
-        <v>127.553</v>
+        <v>-699.53499999999997</v>
       </c>
       <c r="W17">
-        <v>-18.792000000000002</v>
+        <v>-6.3789999999999996</v>
       </c>
       <c r="X17">
-        <v>-67.385999999999996</v>
+        <v>735.60699999999997</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-7.5679999999999996</v>
+        <v>6.4909999999999997</v>
       </c>
       <c r="AA17">
-        <v>140.54499999999999</v>
+        <v>269.93599999999998</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>217.09399999999999</v>
+        <v>397.37299999999999</v>
       </c>
       <c r="D18">
-        <v>1822.558</v>
+        <v>4006.0320000000002</v>
       </c>
       <c r="E18">
-        <v>30.699000000000002</v>
+        <v>118.471</v>
       </c>
       <c r="F18">
-        <v>429.58600000000001</v>
+        <v>653.096</v>
       </c>
       <c r="G18">
-        <v>6535.3230000000003</v>
+        <v>8365.0159999999996</v>
       </c>
       <c r="H18">
-        <v>8569.41</v>
+        <v>10406.897000000001</v>
       </c>
       <c r="I18">
-        <v>237.93</v>
+        <v>304.64499999999998</v>
       </c>
       <c r="J18">
-        <v>1840.816</v>
+        <v>2736.5590000000002</v>
       </c>
       <c r="K18">
-        <v>32.585999999999999</v>
+        <v>921.80899999999997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1432.164</v>
+        <v>2807.0140000000001</v>
       </c>
       <c r="O18">
-        <v>3764.4560000000001</v>
+        <v>5884.6229999999996</v>
       </c>
       <c r="P18">
-        <v>2014.327</v>
+        <v>3783.3589999999999</v>
       </c>
       <c r="Q18">
-        <v>71.045000000000002</v>
+        <v>206.251</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>4149</v>
+        <v>13000</v>
       </c>
       <c r="T18">
-        <v>4804.9539999999997</v>
+        <v>4522.2740000000003</v>
       </c>
       <c r="U18">
-        <v>1292.8620000000001</v>
+        <v>308.11799999999999</v>
       </c>
       <c r="V18">
-        <v>107.414</v>
+        <v>495.67399999999998</v>
       </c>
       <c r="W18">
-        <v>-18.702000000000002</v>
+        <v>-6.3689999999999998</v>
       </c>
       <c r="X18">
-        <v>-38.341000000000001</v>
+        <v>-246.244</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-24.977</v>
       </c>
       <c r="AA18">
-        <v>217.09399999999999</v>
+        <v>397.37299999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>54.970999999999997</v>
+        <v>218.24199999999999</v>
       </c>
       <c r="D19">
-        <v>1133.298</v>
+        <v>2516.5700000000002</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>74.352000000000004</v>
       </c>
       <c r="F19">
-        <v>256.23399999999998</v>
+        <v>354.85599999999999</v>
       </c>
       <c r="G19">
-        <v>6024.8879999999999</v>
+        <v>8923.9459999999999</v>
       </c>
       <c r="H19">
-        <v>8433.2849999999999</v>
+        <v>10901.107</v>
       </c>
       <c r="I19">
-        <v>232.024</v>
+        <v>1470.8920000000001</v>
       </c>
       <c r="J19">
-        <v>1605.0740000000001</v>
+        <v>3510.4549999999999</v>
       </c>
       <c r="K19">
-        <v>39.140999999999998</v>
+        <v>648.26700000000005</v>
       </c>
       <c r="L19">
-        <v>-72.677999999999997</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-278.74400000000003</v>
       </c>
       <c r="N19">
-        <v>1908.454</v>
+        <v>2620.7849999999999</v>
       </c>
       <c r="O19">
-        <v>3691.2910000000002</v>
+        <v>6131.24</v>
       </c>
       <c r="P19">
-        <v>1949.2429999999999</v>
+        <v>4158.7219999999998</v>
       </c>
       <c r="Q19">
-        <v>-238.935</v>
+        <v>38.533999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4741.9939999999997</v>
+        <v>4769.8670000000002</v>
       </c>
       <c r="U19">
-        <v>1053.9269999999999</v>
+        <v>350.71600000000001</v>
       </c>
       <c r="V19">
-        <v>-25.396999999999998</v>
+        <v>-262.26400000000001</v>
       </c>
       <c r="W19">
-        <v>-29.616</v>
+        <v>-6.4180000000000001</v>
       </c>
       <c r="X19">
-        <v>-203.65299999999999</v>
+        <v>373.149</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-42.368000000000002</v>
       </c>
       <c r="AA19">
-        <v>54.970999999999997</v>
+        <v>218.24199999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>103.324</v>
+        <v>303.71100000000001</v>
       </c>
       <c r="D20">
-        <v>1280.2909999999999</v>
+        <v>3249.6880000000001</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>70.427000000000007</v>
       </c>
       <c r="F20">
-        <v>300.93200000000002</v>
+        <v>491.08</v>
       </c>
       <c r="G20">
-        <v>5733.585</v>
+        <v>9744.2520000000004</v>
       </c>
       <c r="H20">
-        <v>8157.9560000000001</v>
+        <v>11631.073</v>
       </c>
       <c r="I20">
-        <v>249.501</v>
+        <v>1564.7</v>
       </c>
       <c r="J20">
-        <v>1142.6579999999999</v>
+        <v>3510.8130000000001</v>
       </c>
       <c r="K20">
-        <v>40.935000000000002</v>
+        <v>833.12099999999998</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2191.7240000000002</v>
+        <v>3035.7739999999999</v>
       </c>
       <c r="O20">
-        <v>3551.6970000000001</v>
+        <v>6546.5870000000004</v>
       </c>
       <c r="P20">
-        <v>1766.6679999999999</v>
+        <v>4343.9340000000002</v>
       </c>
       <c r="Q20">
-        <v>-593.56600000000003</v>
+        <v>97.15</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4606.259</v>
+        <v>5084.4859999999999</v>
       </c>
       <c r="U20">
-        <v>460.36099999999999</v>
+        <v>450.77199999999999</v>
       </c>
       <c r="V20">
-        <v>-165.70599999999999</v>
+        <v>-78.671000000000006</v>
       </c>
       <c r="W20">
-        <v>-29.509</v>
+        <v>-6.5449999999999999</v>
       </c>
       <c r="X20">
-        <v>-429.28</v>
+        <v>126.343</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>81.872</v>
       </c>
       <c r="AA20">
-        <v>103.324</v>
+        <v>303.71100000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>107.767</v>
+        <v>395.42099999999999</v>
       </c>
       <c r="D21">
-        <v>1506.7470000000001</v>
+        <v>3793.0520000000001</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>96.269000000000005</v>
       </c>
       <c r="F21">
-        <v>359.97</v>
+        <v>622.74599999999998</v>
       </c>
       <c r="G21">
-        <v>6368.1909999999998</v>
+        <v>10520.589</v>
       </c>
       <c r="H21">
-        <v>8801.5779999999995</v>
+        <v>12283.757</v>
       </c>
       <c r="I21">
-        <v>321.55099999999999</v>
+        <v>1740.7159999999999</v>
       </c>
       <c r="J21">
-        <v>1641.9749999999999</v>
+        <v>3511.17</v>
       </c>
       <c r="K21">
-        <v>50.947000000000003</v>
+        <v>868.59299999999996</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2346.951</v>
+        <v>3305.2890000000002</v>
       </c>
       <c r="O21">
-        <v>4229.973</v>
+        <v>6816.4589999999998</v>
       </c>
       <c r="P21">
-        <v>2264.8009999999999</v>
+        <v>4379.7629999999999</v>
       </c>
       <c r="Q21">
-        <v>273.79199999999997</v>
+        <v>-234.36500000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4571.6049999999996</v>
+        <v>5467.2979999999998</v>
       </c>
       <c r="U21">
-        <v>734.15300000000002</v>
+        <v>214.89699999999999</v>
       </c>
       <c r="V21">
-        <v>-53.795999999999999</v>
+        <v>-158.34299999999999</v>
       </c>
       <c r="W21">
-        <v>-28.771999999999998</v>
+        <v>-10.458</v>
       </c>
       <c r="X21">
-        <v>339.50299999999999</v>
+        <v>-14.599</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-35.274000000000001</v>
       </c>
       <c r="AA21">
-        <v>107.76900000000001</v>
+        <v>395.42099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>228.02799999999999</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2061.6280000000002</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>28.288</v>
+        <v>156.66300000000001</v>
       </c>
       <c r="F22">
-        <v>717.423</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>7533.5510000000004</v>
+        <v>11211.254000000001</v>
       </c>
       <c r="H22">
-        <v>9189.4060000000009</v>
+        <v>13060.86</v>
       </c>
       <c r="I22">
-        <v>267.178</v>
+        <v>383.988</v>
       </c>
       <c r="J22">
-        <v>2109.8409999999999</v>
+        <v>3386.527</v>
       </c>
       <c r="K22">
-        <v>60.546999999999997</v>
+        <v>1298.412</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1816.7660000000001</v>
+        <v>3235.308</v>
       </c>
       <c r="O22">
-        <v>4430.0810000000001</v>
+        <v>7103.518</v>
       </c>
       <c r="P22">
-        <v>2438.89</v>
+        <v>4684.9390000000003</v>
       </c>
       <c r="Q22">
-        <v>24.923999999999999</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>4542</v>
+        <v>13400</v>
       </c>
       <c r="T22">
-        <v>4759.3249999999998</v>
+        <v>5957.3419999999996</v>
       </c>
       <c r="U22">
-        <v>754.16099999999994</v>
+        <v>1002.268</v>
       </c>
       <c r="V22">
-        <v>-92.691000000000003</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-28.061</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>131.79900000000001</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-0.45400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>228.02799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>83.3</v>
+        <v>262.64499999999998</v>
       </c>
       <c r="D23">
-        <v>1432.578</v>
+        <v>2959.6089999999999</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>85.488</v>
       </c>
       <c r="F23">
-        <v>366.45400000000001</v>
+        <v>425.78100000000001</v>
       </c>
       <c r="G23">
-        <v>7924.2910000000002</v>
+        <v>10519.38</v>
       </c>
       <c r="H23">
-        <v>9843.48</v>
+        <v>12703.016</v>
       </c>
       <c r="I23">
-        <v>331.93200000000002</v>
+        <v>468.33300000000003</v>
       </c>
       <c r="J23">
-        <v>3103.663</v>
+        <v>3386.8820000000001</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>880.05399999999997</v>
       </c>
       <c r="L23">
-        <v>-369.26299999999998</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-0.70199999999999996</v>
+        <v>-445.97899999999998</v>
       </c>
       <c r="N23">
-        <v>1742.598</v>
+        <v>2684.06</v>
       </c>
       <c r="O23">
-        <v>5069.9530000000004</v>
+        <v>6519.692</v>
       </c>
       <c r="P23">
-        <v>3222.5770000000002</v>
+        <v>4266.9359999999997</v>
       </c>
       <c r="Q23">
-        <v>242.68</v>
+        <v>-881.255</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>4773.527</v>
+        <v>6183.3239999999996</v>
       </c>
       <c r="U23">
-        <v>995.69600000000003</v>
+        <v>121.01300000000001</v>
       </c>
       <c r="V23">
-        <v>-62.917000000000002</v>
+        <v>-396.53399999999999</v>
       </c>
       <c r="W23">
-        <v>-31.568000000000001</v>
+        <v>-10.271000000000001</v>
       </c>
       <c r="X23">
-        <v>757.34900000000005</v>
+        <v>-441.31900000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-13.534000000000001</v>
+        <v>37.433999999999997</v>
       </c>
       <c r="AA23">
-        <v>83.3</v>
+        <v>262.64499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>117.76</v>
+        <v>243.01900000000001</v>
       </c>
       <c r="D24">
-        <v>1799.914</v>
+        <v>3358.5219999999999</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>54.793999999999997</v>
       </c>
       <c r="F24">
-        <v>458.96199999999999</v>
+        <v>428.57299999999998</v>
       </c>
       <c r="G24">
-        <v>7662.53</v>
+        <v>11357.112999999999</v>
       </c>
       <c r="H24">
-        <v>9507.0560000000005</v>
+        <v>13623.692999999999</v>
       </c>
       <c r="I24">
-        <v>340.84699999999998</v>
+        <v>522.37199999999996</v>
       </c>
       <c r="J24">
-        <v>2620.2330000000002</v>
+        <v>3537.2370000000001</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1507.874</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1816.4469999999999</v>
+        <v>3269.3209999999999</v>
       </c>
       <c r="O24">
-        <v>4688.9390000000003</v>
+        <v>7239.0829999999996</v>
       </c>
       <c r="P24">
-        <v>2810.3150000000001</v>
+        <v>5045.1109999999999</v>
       </c>
       <c r="Q24">
-        <v>-762.44399999999996</v>
+        <v>-16.553999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>4818.1170000000002</v>
+        <v>6384.61</v>
       </c>
       <c r="U24">
-        <v>229.18700000000001</v>
+        <v>104.459</v>
       </c>
       <c r="V24">
-        <v>-257.18900000000002</v>
+        <v>-656.92399999999998</v>
       </c>
       <c r="W24">
-        <v>-31.451000000000001</v>
+        <v>-10.223000000000001</v>
       </c>
       <c r="X24">
-        <v>-497.642</v>
+        <v>657.46500000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.23499999999999999</v>
+        <v>22.373999999999999</v>
       </c>
       <c r="AA24">
-        <v>117.76</v>
+        <v>243.01900000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>128.47</v>
+        <v>190.21899999999999</v>
       </c>
       <c r="D25">
-        <v>1942.905</v>
+        <v>3563.3850000000002</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>84.778000000000006</v>
       </c>
       <c r="F25">
-        <v>487.14499999999998</v>
+        <v>360.96499999999997</v>
       </c>
       <c r="G25">
-        <v>8139.9139999999998</v>
+        <v>11585.349</v>
       </c>
       <c r="H25">
-        <v>9871.5319999999992</v>
+        <v>13916.223</v>
       </c>
       <c r="I25">
-        <v>378.423</v>
+        <v>522.846</v>
       </c>
       <c r="J25">
-        <v>3130.5659999999998</v>
+        <v>3537.5920000000001</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1648.5229999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1820.6320000000001</v>
+        <v>3454.66</v>
       </c>
       <c r="O25">
-        <v>5199.5</v>
+        <v>7348.7489999999998</v>
       </c>
       <c r="P25">
-        <v>3290.335</v>
+        <v>5186.1149999999998</v>
       </c>
       <c r="Q25">
-        <v>205.518</v>
+        <v>-9.8260000000000005</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>4672.0320000000002</v>
+        <v>6567.4740000000002</v>
       </c>
       <c r="U25">
-        <v>434.20499999999998</v>
+        <v>94.632999999999996</v>
       </c>
       <c r="V25">
-        <v>13.6</v>
+        <v>-213.251</v>
       </c>
       <c r="W25">
-        <v>-31.279</v>
+        <v>-10.195</v>
       </c>
       <c r="X25">
-        <v>202.13800000000001</v>
+        <v>246.34899999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-0.28000000000000003</v>
+        <v>-63.637999999999998</v>
       </c>
       <c r="AA25">
-        <v>128.47</v>
+        <v>190.21899999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>273.173</v>
+        <v>-8.4120000000000008</v>
       </c>
       <c r="D26">
-        <v>2493.0790000000002</v>
+        <v>4388.3280000000004</v>
       </c>
       <c r="E26">
-        <v>29.111000000000001</v>
+        <v>72.596999999999994</v>
       </c>
       <c r="F26">
-        <v>629.96299999999997</v>
+        <v>433.77600000000001</v>
       </c>
       <c r="G26">
-        <v>8830.5660000000007</v>
+        <v>11335.397000000001</v>
       </c>
       <c r="H26">
-        <v>10178.200000000001</v>
+        <v>13176.874</v>
       </c>
       <c r="I26">
-        <v>305.76499999999999</v>
+        <v>295.99200000000002</v>
       </c>
       <c r="J26">
-        <v>3129.2979999999998</v>
+        <v>3537.9470000000001</v>
       </c>
       <c r="K26">
-        <v>99.69</v>
+        <v>1095.0360000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1846.019</v>
+        <v>2852.2530000000002</v>
       </c>
       <c r="O26">
-        <v>5518.8370000000004</v>
+        <v>6599.5129999999999</v>
       </c>
       <c r="P26">
-        <v>3561.973</v>
+        <v>4632.9830000000002</v>
       </c>
       <c r="Q26">
-        <v>262.05900000000003</v>
+        <v>456.65899999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>4623</v>
+        <v>12400</v>
       </c>
       <c r="T26">
-        <v>4659.3630000000003</v>
+        <v>6577.3609999999999</v>
       </c>
       <c r="U26">
-        <v>698.88199999999995</v>
+        <v>551.29200000000003</v>
       </c>
       <c r="V26">
-        <v>374.77600000000001</v>
+        <v>999.18299999999999</v>
       </c>
       <c r="W26">
-        <v>-30.367999999999999</v>
+        <v>-10.19</v>
       </c>
       <c r="X26">
-        <v>-111.11</v>
+        <v>-558.67399999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-0.49</v>
+        <v>13.045</v>
       </c>
       <c r="AA26">
-        <v>273.173</v>
+        <v>-8.4120000000000008</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>91.518000000000001</v>
+        <v>-85.671999999999997</v>
       </c>
       <c r="D27">
-        <v>1629.8779999999999</v>
+        <v>1869.489</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>32.843000000000004</v>
       </c>
       <c r="F27">
-        <v>380.70800000000003</v>
+        <v>-2.0350000000000001</v>
       </c>
       <c r="G27">
-        <v>8346.8330000000005</v>
+        <v>9908.643</v>
       </c>
       <c r="H27">
-        <v>9920.8140000000003</v>
+        <v>12151.02</v>
       </c>
       <c r="I27">
-        <v>367.18</v>
+        <v>344.28199999999998</v>
       </c>
       <c r="J27">
-        <v>3130.0039999999999</v>
+        <v>3538.3029999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>528.423</v>
       </c>
       <c r="L27">
-        <v>-191.24</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-1.0669999999999999</v>
+        <v>-533.55499999999995</v>
       </c>
       <c r="N27">
-        <v>1889.92</v>
+        <v>1865.615</v>
       </c>
       <c r="O27">
-        <v>5260.6689999999999</v>
+        <v>5681.4970000000003</v>
       </c>
       <c r="P27">
-        <v>3271.0140000000001</v>
+        <v>4066.7260000000001</v>
       </c>
       <c r="Q27">
-        <v>-299.38499999999999</v>
+        <v>-434.34399999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4660.1450000000004</v>
+        <v>6469.5230000000001</v>
       </c>
       <c r="U27">
-        <v>397.75799999999998</v>
+        <v>116.94799999999999</v>
       </c>
       <c r="V27">
-        <v>39.802999999999997</v>
+        <v>202.13499999999999</v>
       </c>
       <c r="W27">
-        <v>-29.102</v>
+        <v>-10.24</v>
       </c>
       <c r="X27">
-        <v>-315.81299999999999</v>
+        <v>-542.66800000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-14.802</v>
+        <v>-79.784000000000006</v>
       </c>
       <c r="AA27">
-        <v>91.518000000000001</v>
+        <v>-85.671999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>100.75</v>
+        <v>-507.55099999999999</v>
       </c>
       <c r="D28">
-        <v>2021.86</v>
+        <v>2020.86</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>37.17</v>
       </c>
       <c r="F28">
-        <v>468.339</v>
+        <v>-73.302000000000007</v>
       </c>
       <c r="G28">
-        <v>8273.6830000000009</v>
+        <v>9970.8580000000002</v>
       </c>
       <c r="H28">
-        <v>9812.8780000000006</v>
+        <v>11951.647999999999</v>
       </c>
       <c r="I28">
-        <v>407.69099999999997</v>
+        <v>379.62200000000001</v>
       </c>
       <c r="J28">
-        <v>3139.5940000000001</v>
+        <v>3477.5340000000001</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>736.25199999999995</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1938.3920000000001</v>
+        <v>2196.5709999999999</v>
       </c>
       <c r="O28">
-        <v>5368.8760000000002</v>
+        <v>5981.4809999999998</v>
       </c>
       <c r="P28">
-        <v>3294.1930000000002</v>
+        <v>4213.7860000000001</v>
       </c>
       <c r="Q28">
-        <v>-184.00800000000001</v>
+        <v>-42.295999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4444.0020000000004</v>
+        <v>5970.1670000000004</v>
       </c>
       <c r="U28">
-        <v>208.203</v>
+        <v>74.652000000000001</v>
       </c>
       <c r="V28">
-        <v>136.523</v>
+        <v>-194.90600000000001</v>
       </c>
       <c r="W28">
-        <v>-29.111999999999998</v>
+        <v>-10.234</v>
       </c>
       <c r="X28">
-        <v>-312.32499999999999</v>
+        <v>152.506</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-3.03</v>
+        <v>13.654</v>
       </c>
       <c r="AA28">
-        <v>100.749</v>
+        <v>-507.55099999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>177.53899999999999</v>
+        <v>-787.87099999999998</v>
       </c>
       <c r="D29">
-        <v>2131.058</v>
+        <v>2471.299</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>44.966999999999999</v>
       </c>
       <c r="F29">
-        <v>512.02599999999995</v>
+        <v>345.209</v>
       </c>
       <c r="G29">
-        <v>8502.8469999999998</v>
+        <v>8987.83</v>
       </c>
       <c r="H29">
-        <v>9971.2690000000002</v>
+        <v>10932.454</v>
       </c>
       <c r="I29">
-        <v>441.48099999999999</v>
+        <v>350.45600000000002</v>
       </c>
       <c r="J29">
-        <v>3134.7840000000001</v>
+        <v>3477.8820000000001</v>
       </c>
       <c r="K29">
-        <v>83</v>
+        <v>521.52800000000002</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2184.759</v>
+        <v>2018.942</v>
       </c>
       <c r="O29">
-        <v>5626.1840000000002</v>
+        <v>5743.6049999999996</v>
       </c>
       <c r="P29">
-        <v>3464.8339999999998</v>
+        <v>3999.41</v>
       </c>
       <c r="Q29">
-        <v>-42.758000000000003</v>
+        <v>27.134</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4345.085</v>
+        <v>5188.8490000000002</v>
       </c>
       <c r="U29">
-        <v>158.23699999999999</v>
+        <v>101.786</v>
       </c>
       <c r="V29">
-        <v>76.153000000000006</v>
+        <v>317.43900000000002</v>
       </c>
       <c r="W29">
-        <v>-27.803999999999998</v>
+        <v>-10.238</v>
       </c>
       <c r="X29">
-        <v>-110.72499999999999</v>
+        <v>-212.607</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-4.1749999999999998</v>
+        <v>-60.405000000000001</v>
       </c>
       <c r="AA29">
-        <v>177.53899999999999</v>
+        <v>-787.87099999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>77.414000000000001</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2794.89</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>16.768000000000001</v>
+        <v>156.904</v>
       </c>
       <c r="F30">
-        <v>673.63400000000001</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>8749.0450000000001</v>
+        <v>9427.9850000000006</v>
       </c>
       <c r="H30">
-        <v>9686.6489999999994</v>
+        <v>10225.703</v>
       </c>
       <c r="I30">
-        <v>321.01499999999999</v>
+        <v>232.93600000000001</v>
       </c>
       <c r="J30">
-        <v>3006.9670000000001</v>
+        <v>3478.23</v>
       </c>
       <c r="K30">
-        <v>72.8</v>
+        <v>626.31200000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1936.8579999999999</v>
+        <v>1702.335</v>
       </c>
       <c r="O30">
-        <v>5532.6229999999996</v>
+        <v>5905.51</v>
       </c>
       <c r="P30">
-        <v>3518.9189999999999</v>
+        <v>4104.5420000000004</v>
       </c>
       <c r="Q30">
-        <v>109.071</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>4810</v>
+        <v>8500</v>
       </c>
       <c r="T30">
-        <v>4154.0259999999998</v>
+        <v>4320.1930000000002</v>
       </c>
       <c r="U30">
-        <v>272.68299999999999</v>
+        <v>1060.3109999999999</v>
       </c>
       <c r="V30">
-        <v>410.59800000000001</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>-26.73</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-291.05200000000002</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-1.03</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>77.414000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>170.751</v>
+        <v>-696.14400000000001</v>
       </c>
       <c r="D31">
-        <v>1970.0930000000001</v>
+        <v>1441.597</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>29.016999999999999</v>
       </c>
       <c r="F31">
-        <v>466.39299999999997</v>
+        <v>-22.516999999999999</v>
       </c>
       <c r="G31">
-        <v>8545.6319999999996</v>
+        <v>7888.9340000000002</v>
       </c>
       <c r="H31">
-        <v>9706.3950000000004</v>
+        <v>9047.1239999999998</v>
       </c>
       <c r="I31">
-        <v>446.30399999999997</v>
+        <v>221.095</v>
       </c>
       <c r="J31">
-        <v>3087.7179999999998</v>
+        <v>3478.5770000000002</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>396.61500000000001</v>
       </c>
       <c r="L31">
-        <v>-958.85199999999998</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.45100000000000001</v>
+        <v>-186.76499999999999</v>
       </c>
       <c r="N31">
-        <v>2035.1559999999999</v>
+        <v>1791.4380000000001</v>
       </c>
       <c r="O31">
-        <v>5431.7380000000003</v>
+        <v>5422.7420000000002</v>
       </c>
       <c r="P31">
-        <v>3335.5320000000002</v>
+        <v>3875.192</v>
       </c>
       <c r="Q31">
-        <v>-121.381</v>
+        <v>10.853999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4274.6570000000002</v>
+        <v>3624.3820000000001</v>
       </c>
       <c r="U31">
-        <v>150.821</v>
+        <v>1071.165</v>
       </c>
       <c r="V31">
-        <v>169.01300000000001</v>
+        <v>219.851</v>
       </c>
       <c r="W31">
-        <v>-26.347000000000001</v>
+        <v>-10.295</v>
       </c>
       <c r="X31">
-        <v>-274.41800000000001</v>
+        <v>-200.22900000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-7.2480000000000002</v>
       </c>
       <c r="AA31">
-        <v>170.75200000000001</v>
+        <v>-696.14400000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>324.08999999999997</v>
+        <v>-158.417</v>
       </c>
       <c r="D32">
-        <v>2569.7220000000002</v>
+        <v>1619.413</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>31.748999999999999</v>
       </c>
       <c r="F32">
-        <v>638.76099999999997</v>
+        <v>184.17</v>
       </c>
       <c r="G32">
-        <v>8765.741</v>
+        <v>7359.6880000000001</v>
       </c>
       <c r="H32">
-        <v>9815.5759999999991</v>
+        <v>8579.1640000000007</v>
       </c>
       <c r="I32">
-        <v>399.33</v>
+        <v>204.25399999999999</v>
       </c>
       <c r="J32">
-        <v>3005.69</v>
+        <v>3165.6909999999998</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>416.589</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1928.2059999999999</v>
+        <v>1795.828</v>
       </c>
       <c r="O32">
-        <v>5288.8639999999996</v>
+        <v>5109.5450000000001</v>
       </c>
       <c r="P32">
-        <v>3270.5529999999999</v>
+        <v>3582.28</v>
       </c>
       <c r="Q32">
-        <v>217.12799999999999</v>
+        <v>-82.82</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4526.7120000000004</v>
+        <v>3469.6190000000001</v>
       </c>
       <c r="U32">
-        <v>367.09100000000001</v>
+        <v>988.34500000000003</v>
       </c>
       <c r="V32">
-        <v>378.56900000000002</v>
+        <v>269.49299999999999</v>
       </c>
       <c r="W32">
-        <v>-26.036999999999999</v>
+        <v>-10.263</v>
       </c>
       <c r="X32">
-        <v>-150.273</v>
+        <v>-319.46300000000002</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-34.44</v>
       </c>
       <c r="AA32">
-        <v>324.08800000000002</v>
+        <v>-158.417</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>289.53399999999999</v>
+        <v>-280.387</v>
       </c>
       <c r="D33">
-        <v>2649.366</v>
+        <v>1558.2270000000001</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>15.228</v>
       </c>
       <c r="F33">
-        <v>645.92899999999997</v>
+        <v>170.66200000000001</v>
       </c>
       <c r="G33">
-        <v>9104.6669999999995</v>
+        <v>6941.7849999999999</v>
       </c>
       <c r="H33">
-        <v>10055.08</v>
+        <v>8183.0309999999999</v>
       </c>
       <c r="I33">
-        <v>465.83300000000003</v>
+        <v>189.52799999999999</v>
       </c>
       <c r="J33">
-        <v>3005.4180000000001</v>
+        <v>3165.998</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>337.447</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2320.7840000000001</v>
+        <v>1708.885</v>
       </c>
       <c r="O33">
-        <v>5326.2020000000002</v>
+        <v>4999.6719999999996</v>
       </c>
       <c r="P33">
-        <v>3257.752</v>
+        <v>3503.4450000000002</v>
       </c>
       <c r="Q33">
-        <v>357.09699999999998</v>
+        <v>185.547</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4728.8779999999997</v>
+        <v>3183.3589999999999</v>
       </c>
       <c r="U33">
-        <v>728.63099999999997</v>
+        <v>1173.8920000000001</v>
       </c>
       <c r="V33">
-        <v>467.39800000000002</v>
+        <v>273.96899999999999</v>
       </c>
       <c r="W33">
-        <v>-25.9</v>
+        <v>-10.292999999999999</v>
       </c>
       <c r="X33">
-        <v>-105.461</v>
+        <v>-79.516999999999996</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1.8280000000000001</v>
       </c>
       <c r="AA33">
-        <v>289.53500000000003</v>
+        <v>-280.387</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>237.648</v>
+        <v>-338.16500000000002</v>
       </c>
       <c r="D34">
-        <v>2999.15</v>
+        <v>1643.817</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>127.90600000000001</v>
       </c>
       <c r="F34">
-        <v>704.78300000000002</v>
+        <v>117.65</v>
       </c>
       <c r="G34">
-        <v>9592.6470000000008</v>
+        <v>7161.6660000000002</v>
       </c>
       <c r="H34">
-        <v>10172.976000000001</v>
+        <v>7708.4579999999996</v>
       </c>
       <c r="I34">
-        <v>297.64800000000002</v>
+        <v>117.90300000000001</v>
       </c>
       <c r="J34">
-        <v>3028.0659999999998</v>
+        <v>3166.3049999999998</v>
       </c>
       <c r="K34">
-        <v>54.381</v>
+        <v>337.79199999999997</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1750.278</v>
+        <v>1468.1369999999999</v>
       </c>
       <c r="O34">
-        <v>5355.1940000000004</v>
+        <v>4872.76</v>
       </c>
       <c r="P34">
-        <v>3432.1309999999999</v>
+        <v>3504.0970000000002</v>
       </c>
       <c r="Q34">
-        <v>374.68799999999999</v>
+        <v>481.37200000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>5086</v>
+        <v>5300</v>
       </c>
       <c r="T34">
-        <v>4817.7820000000002</v>
+        <v>2835.6979999999999</v>
       </c>
       <c r="U34">
-        <v>1110.088</v>
+        <v>1655.2639999999999</v>
       </c>
       <c r="V34">
-        <v>434.767</v>
+        <v>457.07900000000001</v>
       </c>
       <c r="W34">
-        <v>-25.736000000000001</v>
+        <v>-10.268000000000001</v>
       </c>
       <c r="X34">
-        <v>-50.121000000000002</v>
+        <v>31.555</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-4.3259999999999996</v>
       </c>
       <c r="AA34">
-        <v>237.648</v>
+        <v>-338.16500000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>166.75700000000001</v>
+        <v>-514.81799999999998</v>
       </c>
       <c r="D35">
-        <v>1996.693</v>
+        <v>583.89200000000005</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>5.8209999999999997</v>
       </c>
       <c r="F35">
-        <v>470.46899999999999</v>
+        <v>24.933</v>
       </c>
       <c r="G35">
-        <v>9363.8529999999992</v>
+        <v>5844.2380000000003</v>
       </c>
       <c r="H35">
-        <v>10207.335999999999</v>
+        <v>6814.933</v>
       </c>
       <c r="I35">
-        <v>444.322</v>
+        <v>101.29900000000001</v>
       </c>
       <c r="J35">
-        <v>3024.413</v>
+        <v>3166.6120000000001</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>131.184</v>
       </c>
       <c r="L35">
-        <v>-126.273</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-3.605</v>
+        <v>-171.06200000000001</v>
       </c>
       <c r="N35">
-        <v>1874.377</v>
+        <v>1276.0450000000001</v>
       </c>
       <c r="O35">
-        <v>5273.8969999999999</v>
+        <v>4487.1459999999997</v>
       </c>
       <c r="P35">
-        <v>3345.9250000000002</v>
+        <v>3297.7959999999998</v>
       </c>
       <c r="Q35">
-        <v>-52.747</v>
+        <v>90.531999999999996</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4933.4390000000003</v>
+        <v>2327.7869999999998</v>
       </c>
       <c r="U35">
-        <v>1055.4570000000001</v>
+        <v>1745.796</v>
       </c>
       <c r="V35">
-        <v>158.905</v>
+        <v>290.75400000000002</v>
       </c>
       <c r="W35">
-        <v>-30.802</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-194.584</v>
+        <v>-172.14500000000001</v>
       </c>
       <c r="Y35">
-        <v>80.558999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-1.2889999999999999</v>
+        <v>-7.492</v>
       </c>
       <c r="AA35">
-        <v>166.75700000000001</v>
+        <v>-514.81799999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>241.041</v>
+        <v>-189.465</v>
       </c>
       <c r="D36">
-        <v>2488.9850000000001</v>
+        <v>678.58</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="F36">
-        <v>585.05200000000002</v>
+        <v>28.754000000000001</v>
       </c>
       <c r="G36">
-        <v>9248.5450000000001</v>
+        <v>5490.7190000000001</v>
       </c>
       <c r="H36">
-        <v>10095.537</v>
+        <v>6402.9089999999997</v>
       </c>
       <c r="I36">
-        <v>380.363</v>
+        <v>111.91</v>
       </c>
       <c r="J36">
-        <v>2740.3249999999998</v>
+        <v>2974.373</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>91.528000000000006</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2189.6990000000001</v>
+        <v>1217.0830000000001</v>
       </c>
       <c r="O36">
-        <v>5025.7299999999996</v>
+        <v>4253.4030000000002</v>
       </c>
       <c r="P36">
-        <v>3070.9879999999998</v>
+        <v>3065.9009999999998</v>
       </c>
       <c r="Q36">
-        <v>-421.67899999999997</v>
+        <v>-109.756</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5069.8069999999998</v>
+        <v>2149.5059999999999</v>
       </c>
       <c r="U36">
-        <v>631.30899999999997</v>
+        <v>1636.04</v>
       </c>
       <c r="V36">
-        <v>146.80199999999999</v>
+        <v>109.196</v>
       </c>
       <c r="W36">
-        <v>-30.818000000000001</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-392.178</v>
+        <v>-217.107</v>
       </c>
       <c r="Y36">
-        <v>95.706000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-3.375</v>
+        <v>-5.3840000000000003</v>
       </c>
       <c r="AA36">
-        <v>241.041</v>
+        <v>-189.465</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>273.10399999999998</v>
+        <v>-361.387</v>
       </c>
       <c r="D37">
-        <v>2710.3649999999998</v>
+        <v>1091.0940000000001</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>15.124000000000001</v>
       </c>
       <c r="F37">
-        <v>650.16399999999999</v>
+        <v>96.296999999999997</v>
       </c>
       <c r="G37">
-        <v>9456.0810000000001</v>
+        <v>7555.1310000000003</v>
       </c>
       <c r="H37">
-        <v>10264.513000000001</v>
+        <v>10282.473</v>
       </c>
       <c r="I37">
-        <v>389.84300000000002</v>
+        <v>230.66</v>
       </c>
       <c r="J37">
-        <v>2744.181</v>
+        <v>4279.915</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>166.39699999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1910.057</v>
+        <v>2541.0520000000001</v>
       </c>
       <c r="O37">
-        <v>5082.9210000000003</v>
+        <v>6969.0630000000001</v>
       </c>
       <c r="P37">
-        <v>3089.2710000000002</v>
+        <v>4446.3119999999999</v>
       </c>
       <c r="Q37">
-        <v>109.37</v>
+        <v>-119.417</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5181.5919999999996</v>
+        <v>3313.41</v>
       </c>
       <c r="U37">
-        <v>736.98599999999999</v>
+        <v>1516.623</v>
       </c>
       <c r="V37">
-        <v>277.07299999999998</v>
+        <v>-69.438999999999993</v>
       </c>
       <c r="W37">
-        <v>-30.614999999999998</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-150.68199999999999</v>
+        <v>-1792.769</v>
       </c>
       <c r="Y37">
-        <v>95.010999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-3.637</v>
+        <v>-12.182</v>
       </c>
       <c r="AA37">
-        <v>273.10399999999998</v>
+        <v>-361.387</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>335.798</v>
+        <v>-116.89700000000001</v>
       </c>
       <c r="D38">
-        <v>3016.913</v>
+        <v>1730.8230000000001</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>198.77500000000001</v>
       </c>
       <c r="F38">
-        <v>705.71600000000001</v>
+        <v>172.01300000000001</v>
       </c>
       <c r="G38">
-        <v>10147.665000000001</v>
+        <v>8494.3829999999998</v>
       </c>
       <c r="H38">
-        <v>10715.597</v>
+        <v>10051.222</v>
       </c>
       <c r="I38">
-        <v>384.089</v>
+        <v>173.91499999999999</v>
       </c>
       <c r="J38">
-        <v>2765.04</v>
+        <v>4281.5320000000002</v>
       </c>
       <c r="K38">
-        <v>51.826999999999998</v>
+        <v>122.812</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1794.269</v>
+        <v>2501.1930000000002</v>
       </c>
       <c r="O38">
-        <v>5257.4170000000004</v>
+        <v>6856.7820000000002</v>
       </c>
       <c r="P38">
-        <v>3235.2809999999999</v>
+        <v>4404.3440000000001</v>
       </c>
       <c r="Q38">
-        <v>482.81200000000001</v>
+        <v>341.61099999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>5245</v>
+        <v>5700</v>
       </c>
       <c r="T38">
-        <v>5458.18</v>
+        <v>3194.44</v>
       </c>
       <c r="U38">
-        <v>1217.913</v>
+        <v>1858.2339999999999</v>
       </c>
       <c r="V38">
-        <v>493.22199999999998</v>
+        <v>408.34199999999998</v>
       </c>
       <c r="W38">
-        <v>-30.114999999999998</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>3.8839999999999999</v>
+        <v>-48.01</v>
       </c>
       <c r="Y38">
-        <v>91.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-1.474</v>
       </c>
       <c r="AA38">
-        <v>335.798</v>
+        <v>-116.89700000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>203.71100000000001</v>
+        <v>-12.488</v>
       </c>
       <c r="D39">
-        <v>2294.98</v>
+        <v>1020.3579999999999</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>14.952</v>
       </c>
       <c r="F39">
-        <v>555.59900000000005</v>
+        <v>143.69900000000001</v>
       </c>
       <c r="G39">
-        <v>10573.132</v>
+        <v>8071.8</v>
       </c>
       <c r="H39">
-        <v>11423.374</v>
+        <v>9908.9840000000004</v>
       </c>
       <c r="I39">
-        <v>429.72399999999999</v>
+        <v>191.84299999999999</v>
       </c>
       <c r="J39">
-        <v>2755.9319999999998</v>
+        <v>4235.2640000000001</v>
       </c>
       <c r="K39">
-        <v>700</v>
+        <v>129.52500000000001</v>
       </c>
       <c r="L39">
-        <v>-56.573</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-9.2449999999999992</v>
+        <v>-0.13</v>
       </c>
       <c r="N39">
-        <v>2709.1039999999998</v>
+        <v>2102.0169999999998</v>
       </c>
       <c r="O39">
-        <v>5892.9830000000002</v>
+        <v>6712.4290000000001</v>
       </c>
       <c r="P39">
-        <v>3823.09</v>
+        <v>4412.674</v>
       </c>
       <c r="Q39">
-        <v>599.79700000000003</v>
+        <v>723.41800000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5530.3909999999996</v>
+        <v>3196.5549999999998</v>
       </c>
       <c r="U39">
-        <v>1816.778</v>
+        <v>2581.652</v>
       </c>
       <c r="V39">
-        <v>204.61500000000001</v>
+        <v>677.56700000000001</v>
       </c>
       <c r="W39">
-        <v>-32.74</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>490.97800000000001</v>
+        <v>46.512</v>
       </c>
       <c r="Y39">
-        <v>82.974000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>5.8369999999999997</v>
+        <v>1.625</v>
       </c>
       <c r="AA39">
-        <v>203.71100000000001</v>
+        <v>-12.488</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>348.62</v>
+        <v>76.302999999999997</v>
       </c>
       <c r="D40">
-        <v>2593.7809999999999</v>
+        <v>1305.8979999999999</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>23.538</v>
       </c>
       <c r="F40">
-        <v>659.29499999999996</v>
+        <v>180.00700000000001</v>
       </c>
       <c r="G40">
-        <v>10146.396000000001</v>
+        <v>8066.5720000000001</v>
       </c>
       <c r="H40">
-        <v>10958.485000000001</v>
+        <v>9915.4959999999992</v>
       </c>
       <c r="I40">
-        <v>295.24900000000002</v>
+        <v>207.61799999999999</v>
       </c>
       <c r="J40">
-        <v>2770.6179999999999</v>
+        <v>4237.0770000000002</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>143.75800000000001</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1913.6489999999999</v>
+        <v>2091.627</v>
       </c>
       <c r="O40">
-        <v>5106.817</v>
+        <v>6633.71</v>
       </c>
       <c r="P40">
-        <v>3128.7060000000001</v>
+        <v>4428.5240000000003</v>
       </c>
       <c r="Q40">
-        <v>-153.45699999999999</v>
+        <v>164.97399999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5851.6679999999997</v>
+        <v>3281.7860000000001</v>
       </c>
       <c r="U40">
-        <v>1658.53</v>
+        <v>2746.6260000000002</v>
       </c>
       <c r="V40">
-        <v>603.25699999999995</v>
+        <v>172.5</v>
       </c>
       <c r="W40">
-        <v>-32.591999999999999</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-747.06</v>
+        <v>15.9</v>
       </c>
       <c r="Y40">
-        <v>87.51</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>7.1180000000000003</v>
+        <v>-17.550999999999998</v>
       </c>
       <c r="AA40">
-        <v>348.62</v>
+        <v>76.302999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>416.39699999999999</v>
+        <v>-995.11599999999999</v>
       </c>
       <c r="D41">
-        <v>2954.9569999999999</v>
+        <v>1057.7639999999999</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>9.843</v>
       </c>
       <c r="F41">
-        <v>759.96299999999997</v>
+        <v>135.57499999999999</v>
       </c>
       <c r="G41">
-        <v>10589.5</v>
+        <v>7932.6049999999996</v>
       </c>
       <c r="H41">
-        <v>11365.022000000001</v>
+        <v>9092.6360000000004</v>
       </c>
       <c r="I41">
-        <v>342.27699999999999</v>
+        <v>205.834</v>
       </c>
       <c r="J41">
-        <v>2778.97</v>
+        <v>4238.8900000000003</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>74.301000000000002</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1853.624</v>
+        <v>2208.5459999999998</v>
       </c>
       <c r="O41">
-        <v>5125.0069999999996</v>
+        <v>6796.2129999999997</v>
       </c>
       <c r="P41">
-        <v>3125.1410000000001</v>
+        <v>4360.6840000000002</v>
       </c>
       <c r="Q41">
-        <v>416.41199999999998</v>
+        <v>-123.34399999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>6240.0150000000003</v>
+        <v>2296.4229999999998</v>
       </c>
       <c r="U41">
-        <v>2067.2759999999998</v>
+        <v>2623.2820000000002</v>
       </c>
       <c r="V41">
-        <v>460.75299999999999</v>
+        <v>-51.481000000000002</v>
       </c>
       <c r="W41">
-        <v>-32.423999999999999</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-40.612000000000002</v>
+        <v>-76.668000000000006</v>
       </c>
       <c r="Y41">
-        <v>88.766999999999996</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>6.3209999999999997</v>
+        <v>-2.847</v>
       </c>
       <c r="AA41">
-        <v>416.39800000000002</v>
+        <v>-995.11599999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>-165.428</v>
+      </c>
+      <c r="D42">
+        <v>1185.27</v>
+      </c>
+      <c r="E42">
+        <v>204.029</v>
+      </c>
+      <c r="F42">
+        <v>146.98099999999999</v>
+      </c>
+      <c r="G42">
+        <v>7038.777</v>
+      </c>
+      <c r="H42">
+        <v>7699.3760000000002</v>
+      </c>
+      <c r="I42">
+        <v>162.87200000000001</v>
+      </c>
+      <c r="J42">
+        <v>3377.768</v>
+      </c>
+      <c r="K42">
+        <v>63.594000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1537.51</v>
+      </c>
+      <c r="O42">
+        <v>5564.2089999999998</v>
+      </c>
+      <c r="P42">
+        <v>3455.2620000000002</v>
+      </c>
+      <c r="Q42">
+        <v>-1142.0450000000001</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4363</v>
+      </c>
+      <c r="T42">
+        <v>2135.1669999999999</v>
+      </c>
+      <c r="U42">
+        <v>1483.39</v>
+      </c>
+      <c r="V42">
+        <v>-207.72900000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-934.14300000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0.114</v>
+      </c>
+      <c r="AA42">
+        <v>-165.428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-39.526000000000003</v>
+      </c>
+      <c r="D43">
+        <v>805.202</v>
+      </c>
+      <c r="E43">
+        <v>12.473000000000001</v>
+      </c>
+      <c r="F43">
+        <v>98.882999999999996</v>
+      </c>
+      <c r="G43">
+        <v>6531.3180000000002</v>
+      </c>
+      <c r="H43">
+        <v>7516.6289999999999</v>
+      </c>
+      <c r="I43">
+        <v>177.643</v>
+      </c>
+      <c r="J43">
+        <v>3380.98</v>
+      </c>
+      <c r="K43">
+        <v>28.423999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-13.311999999999999</v>
+      </c>
+      <c r="N43">
+        <v>1881.787</v>
+      </c>
+      <c r="O43">
+        <v>5416.4889999999996</v>
+      </c>
+      <c r="P43">
+        <v>3409.404</v>
+      </c>
+      <c r="Q43">
+        <v>-177.96799999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2100.14</v>
+      </c>
+      <c r="U43">
+        <v>1292.9490000000001</v>
+      </c>
+      <c r="V43">
+        <v>-49.640999999999998</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-14.281000000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-0.94699999999999995</v>
+      </c>
+      <c r="AA43">
+        <v>-39.526000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>-55.384999999999998</v>
+      </c>
+      <c r="D44">
+        <v>927.21199999999999</v>
+      </c>
+      <c r="E44">
+        <v>13.634</v>
+      </c>
+      <c r="F44">
+        <v>97.774000000000001</v>
+      </c>
+      <c r="G44">
+        <v>6482.4139999999998</v>
+      </c>
+      <c r="H44">
+        <v>7425.6049999999996</v>
+      </c>
+      <c r="I44">
+        <v>191.91200000000001</v>
+      </c>
+      <c r="J44">
+        <v>3332.2629999999999</v>
+      </c>
+      <c r="K44">
+        <v>26.940999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1886.345</v>
+      </c>
+      <c r="O44">
+        <v>5375.8779999999997</v>
+      </c>
+      <c r="P44">
+        <v>3359.2040000000002</v>
+      </c>
+      <c r="Q44">
+        <v>-216.565</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2049.7269999999999</v>
+      </c>
+      <c r="U44">
+        <v>1075.223</v>
+      </c>
+      <c r="V44">
+        <v>-169.68600000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-56.506</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1.619</v>
+      </c>
+      <c r="AA44">
+        <v>-55.384999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-129.298</v>
+      </c>
+      <c r="D45">
+        <v>1141.931</v>
+      </c>
+      <c r="E45">
+        <v>16.529</v>
+      </c>
+      <c r="F45">
+        <v>179.40799999999999</v>
+      </c>
+      <c r="G45">
+        <v>6594.3180000000002</v>
+      </c>
+      <c r="H45">
+        <v>7228.6540000000005</v>
+      </c>
+      <c r="I45">
+        <v>177.31100000000001</v>
+      </c>
+      <c r="J45">
+        <v>3238.4079999999999</v>
+      </c>
+      <c r="K45">
+        <v>47.645000000000003</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1948.3440000000001</v>
+      </c>
+      <c r="O45">
+        <v>5305.1869999999999</v>
+      </c>
+      <c r="P45">
+        <v>3383.0079999999998</v>
+      </c>
+      <c r="Q45">
+        <v>70.185000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1923.4670000000001</v>
+      </c>
+      <c r="U45">
+        <v>1142.5129999999999</v>
+      </c>
+      <c r="V45">
+        <v>59.360999999999997</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="AA45">
+        <v>-129.298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>13.821</v>
+      </c>
+      <c r="D46">
+        <v>1262.345</v>
+      </c>
+      <c r="E46">
+        <v>107.73699999999999</v>
+      </c>
+      <c r="F46">
+        <v>145.16800000000001</v>
+      </c>
+      <c r="G46">
+        <v>6540.74</v>
+      </c>
+      <c r="H46">
+        <v>6885.62</v>
+      </c>
+      <c r="I46">
+        <v>148.06700000000001</v>
+      </c>
+      <c r="J46">
+        <v>2991.549</v>
+      </c>
+      <c r="K46">
+        <v>48.38</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1361.11</v>
+      </c>
+      <c r="O46">
+        <v>4947.0050000000001</v>
+      </c>
+      <c r="P46">
+        <v>3136.7240000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-75.971000000000004</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>3579</v>
+      </c>
+      <c r="T46">
+        <v>1938.615</v>
+      </c>
+      <c r="U46">
+        <v>1083.0709999999999</v>
+      </c>
+      <c r="V46">
+        <v>177.245</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-253.59700000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-0.71099999999999997</v>
+      </c>
+      <c r="AA46">
+        <v>13.821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-11.666</v>
+      </c>
+      <c r="D47">
+        <v>881.03599999999994</v>
+      </c>
+      <c r="E47">
+        <v>34.488</v>
+      </c>
+      <c r="F47">
+        <v>118.639</v>
+      </c>
+      <c r="G47">
+        <v>6276.0860000000002</v>
+      </c>
+      <c r="H47">
+        <v>6859.4430000000002</v>
+      </c>
+      <c r="I47">
+        <v>136.959</v>
+      </c>
+      <c r="J47">
+        <v>2931.62</v>
+      </c>
+      <c r="K47">
+        <v>33.65</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1890.0150000000001</v>
+      </c>
+      <c r="O47">
+        <v>4930.6149999999998</v>
+      </c>
+      <c r="P47">
+        <v>3124.596</v>
+      </c>
+      <c r="Q47">
+        <v>128.66399999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1928.828</v>
+      </c>
+      <c r="U47">
+        <v>1211.7349999999999</v>
+      </c>
+      <c r="V47">
+        <v>114.69</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>1.075</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="AA47">
+        <v>-11.666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>42.436</v>
+      </c>
+      <c r="D48">
+        <v>1069.405</v>
+      </c>
+      <c r="E48">
+        <v>34.323999999999998</v>
+      </c>
+      <c r="F48">
+        <v>175.30699999999999</v>
+      </c>
+      <c r="G48">
+        <v>6394.3649999999998</v>
+      </c>
+      <c r="H48">
+        <v>6952.8249999999998</v>
+      </c>
+      <c r="I48">
+        <v>179.07400000000001</v>
+      </c>
+      <c r="J48">
+        <v>2969.9679999999998</v>
+      </c>
+      <c r="K48">
+        <v>35.18</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1890.49</v>
+      </c>
+      <c r="O48">
+        <v>4977.7780000000002</v>
+      </c>
+      <c r="P48">
+        <v>3164.364</v>
+      </c>
+      <c r="Q48">
+        <v>98.742999999999995</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1975.047</v>
+      </c>
+      <c r="U48">
+        <v>1310.4780000000001</v>
+      </c>
+      <c r="V48">
+        <v>96.85</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-1.583</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1.887</v>
+      </c>
+      <c r="AA48">
+        <v>42.436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>116.633</v>
+      </c>
+      <c r="D49">
+        <v>1302.5909999999999</v>
+      </c>
+      <c r="E49">
+        <v>34.805</v>
+      </c>
+      <c r="F49">
+        <v>239.80099999999999</v>
+      </c>
+      <c r="G49">
+        <v>6581.7420000000002</v>
+      </c>
+      <c r="H49">
+        <v>7140.58</v>
+      </c>
+      <c r="I49">
+        <v>172.256</v>
+      </c>
+      <c r="J49">
+        <v>2972.8150000000001</v>
+      </c>
+      <c r="K49">
+        <v>38.076000000000001</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1923.575</v>
+      </c>
+      <c r="O49">
+        <v>5018.5339999999997</v>
+      </c>
+      <c r="P49">
+        <v>3176.6260000000002</v>
+      </c>
+      <c r="Q49">
+        <v>253.173</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2122.0459999999998</v>
+      </c>
+      <c r="U49">
+        <v>1563.6510000000001</v>
+      </c>
+      <c r="V49">
+        <v>209.69200000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>37.485999999999997</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-0.40799999999999997</v>
+      </c>
+      <c r="AA49">
+        <v>116.633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>58.741999999999997</v>
+      </c>
+      <c r="D50">
+        <v>1566.9659999999999</v>
+      </c>
+      <c r="E50">
+        <v>123.268</v>
+      </c>
+      <c r="F50">
+        <v>237.512</v>
+      </c>
+      <c r="G50">
+        <v>6408.4560000000001</v>
+      </c>
+      <c r="H50">
+        <v>6734.4089999999997</v>
+      </c>
+      <c r="I50">
+        <v>136.221</v>
+      </c>
+      <c r="J50">
+        <v>2509.6129999999998</v>
+      </c>
+      <c r="K50">
+        <v>42.052999999999997</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1385.328</v>
+      </c>
+      <c r="O50">
+        <v>4544.7929999999997</v>
+      </c>
+      <c r="P50">
+        <v>2690.57</v>
+      </c>
+      <c r="Q50">
+        <v>-158.89099999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3634</v>
+      </c>
+      <c r="T50">
+        <v>2189.616</v>
+      </c>
+      <c r="U50">
+        <v>1404.76</v>
+      </c>
+      <c r="V50">
+        <v>338.90800000000002</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-485.13499999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-14.856999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>58.741999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>81.762</v>
+      </c>
+      <c r="D51">
+        <v>1162.7560000000001</v>
+      </c>
+      <c r="E51">
+        <v>31.884</v>
+      </c>
+      <c r="F51">
+        <v>216.708</v>
+      </c>
+      <c r="G51">
+        <v>6168.16</v>
+      </c>
+      <c r="H51">
+        <v>6741.1409999999996</v>
+      </c>
+      <c r="I51">
+        <v>142.02000000000001</v>
+      </c>
+      <c r="J51">
+        <v>2323.7559999999999</v>
+      </c>
+      <c r="K51">
+        <v>34.676000000000002</v>
+      </c>
+      <c r="L51">
+        <v>-82.164000000000001</v>
+      </c>
+      <c r="M51">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="N51">
+        <v>2015.8009999999999</v>
+      </c>
+      <c r="O51">
+        <v>4465.6260000000002</v>
+      </c>
+      <c r="P51">
+        <v>2603.2539999999999</v>
+      </c>
+      <c r="Q51">
+        <v>188.16399999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2275.5149999999999</v>
+      </c>
+      <c r="U51">
+        <v>1592.924</v>
+      </c>
+      <c r="V51">
+        <v>270.62</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-81.266999999999996</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-0.39300000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>81.762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>36.417000000000002</v>
+      </c>
+      <c r="D52">
+        <v>1279.422</v>
+      </c>
+      <c r="E52">
+        <v>32.313000000000002</v>
+      </c>
+      <c r="F52">
+        <v>244.89099999999999</v>
+      </c>
+      <c r="G52">
+        <v>5870.9759999999997</v>
+      </c>
+      <c r="H52">
+        <v>6452.2709999999997</v>
+      </c>
+      <c r="I52">
+        <v>169.51599999999999</v>
+      </c>
+      <c r="J52">
+        <v>2082.0619999999999</v>
+      </c>
+      <c r="K52">
+        <v>38.234000000000002</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1874.9179999999999</v>
+      </c>
+      <c r="O52">
+        <v>4124.0559999999996</v>
+      </c>
+      <c r="P52">
+        <v>2181.7890000000002</v>
+      </c>
+      <c r="Q52">
+        <v>-380.25599999999997</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2328.2150000000001</v>
+      </c>
+      <c r="U52">
+        <v>1212.6679999999999</v>
+      </c>
+      <c r="V52">
+        <v>64.444999999999993</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-438.51499999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-0.214</v>
+      </c>
+      <c r="AA52">
+        <v>36.417000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>2281.884</v>
+      </c>
+      <c r="D53">
+        <v>1582.078</v>
+      </c>
+      <c r="E53">
+        <v>32.634999999999998</v>
+      </c>
+      <c r="F53">
+        <v>328.8</v>
+      </c>
+      <c r="G53">
+        <v>5977.3940000000002</v>
+      </c>
+      <c r="H53">
+        <v>8693.7219999999998</v>
+      </c>
+      <c r="I53">
+        <v>176.60300000000001</v>
+      </c>
+      <c r="J53">
+        <v>2056.6570000000002</v>
+      </c>
+      <c r="K53">
+        <v>37.494999999999997</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1971.7149999999999</v>
+      </c>
+      <c r="O53">
+        <v>4202.0370000000003</v>
+      </c>
+      <c r="P53">
+        <v>2209.5859999999998</v>
+      </c>
+      <c r="Q53">
+        <v>137.32599999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4491.6850000000004</v>
+      </c>
+      <c r="U53">
+        <v>1349.9939999999999</v>
+      </c>
+      <c r="V53">
+        <v>219.88499999999999</v>
+      </c>
+      <c r="W53">
+        <v>-19.317</v>
+      </c>
+      <c r="X53">
+        <v>-71.843000000000004</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-0.25</v>
+      </c>
+      <c r="AA53">
+        <v>2281.884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>220.053</v>
+      </c>
+      <c r="D54">
+        <v>1655.3389999999999</v>
+      </c>
+      <c r="E54">
+        <v>32.944000000000003</v>
+      </c>
+      <c r="F54">
+        <v>388.55</v>
+      </c>
+      <c r="G54">
+        <v>6330.3280000000004</v>
+      </c>
+      <c r="H54">
+        <v>8734.143</v>
+      </c>
+      <c r="I54">
+        <v>166.90899999999999</v>
+      </c>
+      <c r="J54">
+        <v>2065.6889999999999</v>
+      </c>
+      <c r="K54">
+        <v>35.826999999999998</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1467.173</v>
+      </c>
+      <c r="O54">
+        <v>4085.1909999999998</v>
+      </c>
+      <c r="P54">
+        <v>2207.7530000000002</v>
+      </c>
+      <c r="Q54">
+        <v>230.33500000000001</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3843</v>
+      </c>
+      <c r="T54">
+        <v>4648.9520000000002</v>
+      </c>
+      <c r="U54">
+        <v>1580.329</v>
+      </c>
+      <c r="V54">
+        <v>326.18599999999998</v>
+      </c>
+      <c r="W54">
+        <v>-19.065000000000001</v>
+      </c>
+      <c r="X54">
+        <v>-67.965000000000003</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>220.053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>74.819000000000003</v>
+      </c>
+      <c r="D55">
+        <v>1118.894</v>
+      </c>
+      <c r="E55">
+        <v>29.773</v>
+      </c>
+      <c r="F55">
+        <v>281.97899999999998</v>
+      </c>
+      <c r="G55">
+        <v>5695.384</v>
+      </c>
+      <c r="H55">
+        <v>8351.4110000000001</v>
+      </c>
+      <c r="I55">
+        <v>178.50200000000001</v>
+      </c>
+      <c r="J55">
+        <v>1814.0409999999999</v>
+      </c>
+      <c r="K55">
+        <v>26.731999999999999</v>
+      </c>
+      <c r="L55">
+        <v>-69.828000000000003</v>
+      </c>
+      <c r="M55">
+        <v>-250.01300000000001</v>
+      </c>
+      <c r="N55">
+        <v>1704.7339999999999</v>
+      </c>
+      <c r="O55">
+        <v>3687.348</v>
+      </c>
+      <c r="P55">
+        <v>1876.903</v>
+      </c>
+      <c r="Q55">
+        <v>-312.16699999999997</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4664.0630000000001</v>
+      </c>
+      <c r="U55">
+        <v>1268.162</v>
+      </c>
+      <c r="V55">
+        <v>91.396000000000001</v>
+      </c>
+      <c r="W55">
+        <v>-19.065000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-383.71600000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>6.3760000000000003</v>
+      </c>
+      <c r="AA55">
+        <v>74.819000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>41.88</v>
+      </c>
+      <c r="D56">
+        <v>1286.1869999999999</v>
+      </c>
+      <c r="E56">
+        <v>30.024999999999999</v>
+      </c>
+      <c r="F56">
+        <v>304.57299999999998</v>
+      </c>
+      <c r="G56">
+        <v>5809.6589999999997</v>
+      </c>
+      <c r="H56">
+        <v>8467.3359999999993</v>
+      </c>
+      <c r="I56">
+        <v>216.768</v>
+      </c>
+      <c r="J56">
+        <v>1580.779</v>
+      </c>
+      <c r="K56">
+        <v>37.146999999999998</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2041.5219999999999</v>
+      </c>
+      <c r="O56">
+        <v>3829.2919999999999</v>
+      </c>
+      <c r="P56">
+        <v>1911.453</v>
+      </c>
+      <c r="Q56">
+        <v>-97.227999999999994</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4638.0439999999999</v>
+      </c>
+      <c r="U56">
+        <v>1170.934</v>
+      </c>
+      <c r="V56">
+        <v>-17.114000000000001</v>
+      </c>
+      <c r="W56">
+        <v>-19.087</v>
+      </c>
+      <c r="X56">
+        <v>-39.649000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="AA56">
+        <v>41.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>140.54499999999999</v>
+      </c>
+      <c r="D57">
+        <v>1594.7249999999999</v>
+      </c>
+      <c r="E57">
+        <v>30.178999999999998</v>
+      </c>
+      <c r="F57">
+        <v>373.24200000000002</v>
+      </c>
+      <c r="G57">
+        <v>6045.1729999999998</v>
+      </c>
+      <c r="H57">
+        <v>8614.6450000000004</v>
+      </c>
+      <c r="I57">
+        <v>256.36799999999999</v>
+      </c>
+      <c r="J57">
+        <v>1817.0540000000001</v>
+      </c>
+      <c r="K57">
+        <v>42.636000000000003</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1894.6310000000001</v>
+      </c>
+      <c r="O57">
+        <v>3904.2359999999999</v>
+      </c>
+      <c r="P57">
+        <v>1931.5329999999999</v>
+      </c>
+      <c r="Q57">
+        <v>50.883000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4710.4089999999997</v>
+      </c>
+      <c r="U57">
+        <v>1221.817</v>
+      </c>
+      <c r="V57">
+        <v>127.553</v>
+      </c>
+      <c r="W57">
+        <v>-18.792000000000002</v>
+      </c>
+      <c r="X57">
+        <v>-67.385999999999996</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-7.5679999999999996</v>
+      </c>
+      <c r="AA57">
+        <v>140.54499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>217.09399999999999</v>
+      </c>
+      <c r="D58">
+        <v>1822.558</v>
+      </c>
+      <c r="E58">
+        <v>30.699000000000002</v>
+      </c>
+      <c r="F58">
+        <v>429.58600000000001</v>
+      </c>
+      <c r="G58">
+        <v>6535.3230000000003</v>
+      </c>
+      <c r="H58">
+        <v>8569.41</v>
+      </c>
+      <c r="I58">
+        <v>237.93</v>
+      </c>
+      <c r="J58">
+        <v>1840.816</v>
+      </c>
+      <c r="K58">
+        <v>32.585999999999999</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1432.164</v>
+      </c>
+      <c r="O58">
+        <v>3764.4560000000001</v>
+      </c>
+      <c r="P58">
+        <v>2014.327</v>
+      </c>
+      <c r="Q58">
+        <v>71.045000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>4149</v>
+      </c>
+      <c r="T58">
+        <v>4804.9539999999997</v>
+      </c>
+      <c r="U58">
+        <v>1292.8620000000001</v>
+      </c>
+      <c r="V58">
+        <v>107.414</v>
+      </c>
+      <c r="W58">
+        <v>-18.702000000000002</v>
+      </c>
+      <c r="X58">
+        <v>-38.341000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>217.09399999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>54.970999999999997</v>
+      </c>
+      <c r="D59">
+        <v>1133.298</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>256.23399999999998</v>
+      </c>
+      <c r="G59">
+        <v>6024.8879999999999</v>
+      </c>
+      <c r="H59">
+        <v>8433.2849999999999</v>
+      </c>
+      <c r="I59">
+        <v>232.024</v>
+      </c>
+      <c r="J59">
+        <v>1605.0740000000001</v>
+      </c>
+      <c r="K59">
+        <v>39.140999999999998</v>
+      </c>
+      <c r="L59">
+        <v>-72.677999999999997</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1908.454</v>
+      </c>
+      <c r="O59">
+        <v>3691.2910000000002</v>
+      </c>
+      <c r="P59">
+        <v>1949.2429999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-238.935</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4741.9939999999997</v>
+      </c>
+      <c r="U59">
+        <v>1053.9269999999999</v>
+      </c>
+      <c r="V59">
+        <v>-25.396999999999998</v>
+      </c>
+      <c r="W59">
+        <v>-29.616</v>
+      </c>
+      <c r="X59">
+        <v>-203.65299999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>54.970999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>103.324</v>
+      </c>
+      <c r="D60">
+        <v>1280.2909999999999</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>300.93200000000002</v>
+      </c>
+      <c r="G60">
+        <v>5733.585</v>
+      </c>
+      <c r="H60">
+        <v>8157.9560000000001</v>
+      </c>
+      <c r="I60">
+        <v>249.501</v>
+      </c>
+      <c r="J60">
+        <v>1142.6579999999999</v>
+      </c>
+      <c r="K60">
+        <v>40.935000000000002</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2191.7240000000002</v>
+      </c>
+      <c r="O60">
+        <v>3551.6970000000001</v>
+      </c>
+      <c r="P60">
+        <v>1766.6679999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-593.56600000000003</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4606.259</v>
+      </c>
+      <c r="U60">
+        <v>460.36099999999999</v>
+      </c>
+      <c r="V60">
+        <v>-165.70599999999999</v>
+      </c>
+      <c r="W60">
+        <v>-29.509</v>
+      </c>
+      <c r="X60">
+        <v>-429.28</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>103.324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>107.767</v>
+      </c>
+      <c r="D61">
+        <v>1506.7470000000001</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>359.97</v>
+      </c>
+      <c r="G61">
+        <v>6368.1909999999998</v>
+      </c>
+      <c r="H61">
+        <v>8801.5779999999995</v>
+      </c>
+      <c r="I61">
+        <v>321.55099999999999</v>
+      </c>
+      <c r="J61">
+        <v>1641.9749999999999</v>
+      </c>
+      <c r="K61">
+        <v>50.947000000000003</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2346.951</v>
+      </c>
+      <c r="O61">
+        <v>4229.973</v>
+      </c>
+      <c r="P61">
+        <v>2264.8009999999999</v>
+      </c>
+      <c r="Q61">
+        <v>273.79199999999997</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4571.6049999999996</v>
+      </c>
+      <c r="U61">
+        <v>734.15300000000002</v>
+      </c>
+      <c r="V61">
+        <v>-53.795999999999999</v>
+      </c>
+      <c r="W61">
+        <v>-28.771999999999998</v>
+      </c>
+      <c r="X61">
+        <v>339.50299999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>107.76900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>228.02799999999999</v>
+      </c>
+      <c r="D62">
+        <v>2061.6280000000002</v>
+      </c>
+      <c r="E62">
+        <v>28.288</v>
+      </c>
+      <c r="F62">
+        <v>717.423</v>
+      </c>
+      <c r="G62">
+        <v>7533.5510000000004</v>
+      </c>
+      <c r="H62">
+        <v>9189.4060000000009</v>
+      </c>
+      <c r="I62">
+        <v>267.178</v>
+      </c>
+      <c r="J62">
+        <v>2109.8409999999999</v>
+      </c>
+      <c r="K62">
+        <v>60.546999999999997</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1816.7660000000001</v>
+      </c>
+      <c r="O62">
+        <v>4430.0810000000001</v>
+      </c>
+      <c r="P62">
+        <v>2438.89</v>
+      </c>
+      <c r="Q62">
+        <v>24.923999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>4542</v>
+      </c>
+      <c r="T62">
+        <v>4759.3249999999998</v>
+      </c>
+      <c r="U62">
+        <v>754.16099999999994</v>
+      </c>
+      <c r="V62">
+        <v>-92.691000000000003</v>
+      </c>
+      <c r="W62">
+        <v>-28.061</v>
+      </c>
+      <c r="X62">
+        <v>131.79900000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>228.02799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>83.3</v>
+      </c>
+      <c r="D63">
+        <v>1432.578</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>366.45400000000001</v>
+      </c>
+      <c r="G63">
+        <v>7924.2910000000002</v>
+      </c>
+      <c r="H63">
+        <v>9843.48</v>
+      </c>
+      <c r="I63">
+        <v>331.93200000000002</v>
+      </c>
+      <c r="J63">
+        <v>3103.663</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-369.26299999999998</v>
+      </c>
+      <c r="M63">
+        <v>-0.70199999999999996</v>
+      </c>
+      <c r="N63">
+        <v>1742.598</v>
+      </c>
+      <c r="O63">
+        <v>5069.9530000000004</v>
+      </c>
+      <c r="P63">
+        <v>3222.5770000000002</v>
+      </c>
+      <c r="Q63">
+        <v>242.68</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>4773.527</v>
+      </c>
+      <c r="U63">
+        <v>995.69600000000003</v>
+      </c>
+      <c r="V63">
+        <v>-62.917000000000002</v>
+      </c>
+      <c r="W63">
+        <v>-31.568000000000001</v>
+      </c>
+      <c r="X63">
+        <v>757.34900000000005</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-13.534000000000001</v>
+      </c>
+      <c r="AA63">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>117.76</v>
+      </c>
+      <c r="D64">
+        <v>1799.914</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>458.96199999999999</v>
+      </c>
+      <c r="G64">
+        <v>7662.53</v>
+      </c>
+      <c r="H64">
+        <v>9507.0560000000005</v>
+      </c>
+      <c r="I64">
+        <v>340.84699999999998</v>
+      </c>
+      <c r="J64">
+        <v>2620.2330000000002</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1816.4469999999999</v>
+      </c>
+      <c r="O64">
+        <v>4688.9390000000003</v>
+      </c>
+      <c r="P64">
+        <v>2810.3150000000001</v>
+      </c>
+      <c r="Q64">
+        <v>-762.44399999999996</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4818.1170000000002</v>
+      </c>
+      <c r="U64">
+        <v>229.18700000000001</v>
+      </c>
+      <c r="V64">
+        <v>-257.18900000000002</v>
+      </c>
+      <c r="W64">
+        <v>-31.451000000000001</v>
+      </c>
+      <c r="X64">
+        <v>-497.642</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-0.23499999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>117.76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>128.47</v>
+      </c>
+      <c r="D65">
+        <v>1942.905</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>487.14499999999998</v>
+      </c>
+      <c r="G65">
+        <v>8139.9139999999998</v>
+      </c>
+      <c r="H65">
+        <v>9871.5319999999992</v>
+      </c>
+      <c r="I65">
+        <v>378.423</v>
+      </c>
+      <c r="J65">
+        <v>3130.5659999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1820.6320000000001</v>
+      </c>
+      <c r="O65">
+        <v>5199.5</v>
+      </c>
+      <c r="P65">
+        <v>3290.335</v>
+      </c>
+      <c r="Q65">
+        <v>205.518</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>4672.0320000000002</v>
+      </c>
+      <c r="U65">
+        <v>434.20499999999998</v>
+      </c>
+      <c r="V65">
+        <v>13.6</v>
+      </c>
+      <c r="W65">
+        <v>-31.279</v>
+      </c>
+      <c r="X65">
+        <v>202.13800000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AA65">
+        <v>128.47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>273.173</v>
+      </c>
+      <c r="D66">
+        <v>2493.0790000000002</v>
+      </c>
+      <c r="E66">
+        <v>29.111000000000001</v>
+      </c>
+      <c r="F66">
+        <v>629.96299999999997</v>
+      </c>
+      <c r="G66">
+        <v>8830.5660000000007</v>
+      </c>
+      <c r="H66">
+        <v>10178.200000000001</v>
+      </c>
+      <c r="I66">
+        <v>305.76499999999999</v>
+      </c>
+      <c r="J66">
+        <v>3129.2979999999998</v>
+      </c>
+      <c r="K66">
+        <v>99.69</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1846.019</v>
+      </c>
+      <c r="O66">
+        <v>5518.8370000000004</v>
+      </c>
+      <c r="P66">
+        <v>3561.973</v>
+      </c>
+      <c r="Q66">
+        <v>262.05900000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>4623</v>
+      </c>
+      <c r="T66">
+        <v>4659.3630000000003</v>
+      </c>
+      <c r="U66">
+        <v>698.88199999999995</v>
+      </c>
+      <c r="V66">
+        <v>374.77600000000001</v>
+      </c>
+      <c r="W66">
+        <v>-30.367999999999999</v>
+      </c>
+      <c r="X66">
+        <v>-111.11</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-0.49</v>
+      </c>
+      <c r="AA66">
+        <v>273.173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>91.518000000000001</v>
+      </c>
+      <c r="D67">
+        <v>1629.8779999999999</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>380.70800000000003</v>
+      </c>
+      <c r="G67">
+        <v>8346.8330000000005</v>
+      </c>
+      <c r="H67">
+        <v>9920.8140000000003</v>
+      </c>
+      <c r="I67">
+        <v>367.18</v>
+      </c>
+      <c r="J67">
+        <v>3130.0039999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-191.24</v>
+      </c>
+      <c r="M67">
+        <v>-1.0669999999999999</v>
+      </c>
+      <c r="N67">
+        <v>1889.92</v>
+      </c>
+      <c r="O67">
+        <v>5260.6689999999999</v>
+      </c>
+      <c r="P67">
+        <v>3271.0140000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-299.38499999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4660.1450000000004</v>
+      </c>
+      <c r="U67">
+        <v>397.75799999999998</v>
+      </c>
+      <c r="V67">
+        <v>39.802999999999997</v>
+      </c>
+      <c r="W67">
+        <v>-29.102</v>
+      </c>
+      <c r="X67">
+        <v>-315.81299999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-14.802</v>
+      </c>
+      <c r="AA67">
+        <v>91.518000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>100.75</v>
+      </c>
+      <c r="D68">
+        <v>2021.86</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>468.339</v>
+      </c>
+      <c r="G68">
+        <v>8273.6830000000009</v>
+      </c>
+      <c r="H68">
+        <v>9812.8780000000006</v>
+      </c>
+      <c r="I68">
+        <v>407.69099999999997</v>
+      </c>
+      <c r="J68">
+        <v>3139.5940000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1938.3920000000001</v>
+      </c>
+      <c r="O68">
+        <v>5368.8760000000002</v>
+      </c>
+      <c r="P68">
+        <v>3294.1930000000002</v>
+      </c>
+      <c r="Q68">
+        <v>-184.00800000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4444.0020000000004</v>
+      </c>
+      <c r="U68">
+        <v>208.203</v>
+      </c>
+      <c r="V68">
+        <v>136.523</v>
+      </c>
+      <c r="W68">
+        <v>-29.111999999999998</v>
+      </c>
+      <c r="X68">
+        <v>-312.32499999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-3.03</v>
+      </c>
+      <c r="AA68">
+        <v>100.749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>177.53899999999999</v>
+      </c>
+      <c r="D69">
+        <v>2131.058</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>512.02599999999995</v>
+      </c>
+      <c r="G69">
+        <v>8502.8469999999998</v>
+      </c>
+      <c r="H69">
+        <v>9971.2690000000002</v>
+      </c>
+      <c r="I69">
+        <v>441.48099999999999</v>
+      </c>
+      <c r="J69">
+        <v>3134.7840000000001</v>
+      </c>
+      <c r="K69">
+        <v>83</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2184.759</v>
+      </c>
+      <c r="O69">
+        <v>5626.1840000000002</v>
+      </c>
+      <c r="P69">
+        <v>3464.8339999999998</v>
+      </c>
+      <c r="Q69">
+        <v>-42.758000000000003</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4345.085</v>
+      </c>
+      <c r="U69">
+        <v>158.23699999999999</v>
+      </c>
+      <c r="V69">
+        <v>76.153000000000006</v>
+      </c>
+      <c r="W69">
+        <v>-27.803999999999998</v>
+      </c>
+      <c r="X69">
+        <v>-110.72499999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-4.1749999999999998</v>
+      </c>
+      <c r="AA69">
+        <v>177.53899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>77.414000000000001</v>
+      </c>
+      <c r="D70">
+        <v>2794.89</v>
+      </c>
+      <c r="E70">
+        <v>16.768000000000001</v>
+      </c>
+      <c r="F70">
+        <v>673.63400000000001</v>
+      </c>
+      <c r="G70">
+        <v>8749.0450000000001</v>
+      </c>
+      <c r="H70">
+        <v>9686.6489999999994</v>
+      </c>
+      <c r="I70">
+        <v>321.01499999999999</v>
+      </c>
+      <c r="J70">
+        <v>3006.9670000000001</v>
+      </c>
+      <c r="K70">
+        <v>72.8</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1936.8579999999999</v>
+      </c>
+      <c r="O70">
+        <v>5532.6229999999996</v>
+      </c>
+      <c r="P70">
+        <v>3518.9189999999999</v>
+      </c>
+      <c r="Q70">
+        <v>109.071</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>4810</v>
+      </c>
+      <c r="T70">
+        <v>4154.0259999999998</v>
+      </c>
+      <c r="U70">
+        <v>272.68299999999999</v>
+      </c>
+      <c r="V70">
+        <v>410.59800000000001</v>
+      </c>
+      <c r="W70">
+        <v>-26.73</v>
+      </c>
+      <c r="X70">
+        <v>-291.05200000000002</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-1.03</v>
+      </c>
+      <c r="AA70">
+        <v>77.414000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>170.751</v>
+      </c>
+      <c r="D71">
+        <v>1970.0930000000001</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>466.39299999999997</v>
+      </c>
+      <c r="G71">
+        <v>8545.6319999999996</v>
+      </c>
+      <c r="H71">
+        <v>9706.3950000000004</v>
+      </c>
+      <c r="I71">
+        <v>446.30399999999997</v>
+      </c>
+      <c r="J71">
+        <v>3087.7179999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>-958.85199999999998</v>
+      </c>
+      <c r="M71">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="N71">
+        <v>2035.1559999999999</v>
+      </c>
+      <c r="O71">
+        <v>5431.7380000000003</v>
+      </c>
+      <c r="P71">
+        <v>3335.5320000000002</v>
+      </c>
+      <c r="Q71">
+        <v>-121.381</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4274.6570000000002</v>
+      </c>
+      <c r="U71">
+        <v>150.821</v>
+      </c>
+      <c r="V71">
+        <v>169.01300000000001</v>
+      </c>
+      <c r="W71">
+        <v>-26.347000000000001</v>
+      </c>
+      <c r="X71">
+        <v>-274.41800000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
+        <v>170.75200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>324.08999999999997</v>
+      </c>
+      <c r="D72">
+        <v>2569.7220000000002</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>638.76099999999997</v>
+      </c>
+      <c r="G72">
+        <v>8765.741</v>
+      </c>
+      <c r="H72">
+        <v>9815.5759999999991</v>
+      </c>
+      <c r="I72">
+        <v>399.33</v>
+      </c>
+      <c r="J72">
+        <v>3005.69</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1928.2059999999999</v>
+      </c>
+      <c r="O72">
+        <v>5288.8639999999996</v>
+      </c>
+      <c r="P72">
+        <v>3270.5529999999999</v>
+      </c>
+      <c r="Q72">
+        <v>217.12799999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4526.7120000000004</v>
+      </c>
+      <c r="U72">
+        <v>367.09100000000001</v>
+      </c>
+      <c r="V72">
+        <v>378.56900000000002</v>
+      </c>
+      <c r="W72">
+        <v>-26.036999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-150.273</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>324.08800000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>289.53399999999999</v>
+      </c>
+      <c r="D73">
+        <v>2649.366</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>645.92899999999997</v>
+      </c>
+      <c r="G73">
+        <v>9104.6669999999995</v>
+      </c>
+      <c r="H73">
+        <v>10055.08</v>
+      </c>
+      <c r="I73">
+        <v>465.83300000000003</v>
+      </c>
+      <c r="J73">
+        <v>3005.4180000000001</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2320.7840000000001</v>
+      </c>
+      <c r="O73">
+        <v>5326.2020000000002</v>
+      </c>
+      <c r="P73">
+        <v>3257.752</v>
+      </c>
+      <c r="Q73">
+        <v>357.09699999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4728.8779999999997</v>
+      </c>
+      <c r="U73">
+        <v>728.63099999999997</v>
+      </c>
+      <c r="V73">
+        <v>467.39800000000002</v>
+      </c>
+      <c r="W73">
+        <v>-25.9</v>
+      </c>
+      <c r="X73">
+        <v>-105.461</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>289.53500000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>237.648</v>
+      </c>
+      <c r="D74">
+        <v>2999.15</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>704.78300000000002</v>
+      </c>
+      <c r="G74">
+        <v>9592.6470000000008</v>
+      </c>
+      <c r="H74">
+        <v>10172.976000000001</v>
+      </c>
+      <c r="I74">
+        <v>297.64800000000002</v>
+      </c>
+      <c r="J74">
+        <v>3028.0659999999998</v>
+      </c>
+      <c r="K74">
+        <v>54.381</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1750.278</v>
+      </c>
+      <c r="O74">
+        <v>5355.1940000000004</v>
+      </c>
+      <c r="P74">
+        <v>3432.1309999999999</v>
+      </c>
+      <c r="Q74">
+        <v>374.68799999999999</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>5086</v>
+      </c>
+      <c r="T74">
+        <v>4817.7820000000002</v>
+      </c>
+      <c r="U74">
+        <v>1110.088</v>
+      </c>
+      <c r="V74">
+        <v>434.767</v>
+      </c>
+      <c r="W74">
+        <v>-25.736000000000001</v>
+      </c>
+      <c r="X74">
+        <v>-50.121000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>237.648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>166.75700000000001</v>
+      </c>
+      <c r="D75">
+        <v>1996.693</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>470.46899999999999</v>
+      </c>
+      <c r="G75">
+        <v>9363.8529999999992</v>
+      </c>
+      <c r="H75">
+        <v>10207.335999999999</v>
+      </c>
+      <c r="I75">
+        <v>444.322</v>
+      </c>
+      <c r="J75">
+        <v>3024.413</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-126.273</v>
+      </c>
+      <c r="M75">
+        <v>-3.605</v>
+      </c>
+      <c r="N75">
+        <v>1874.377</v>
+      </c>
+      <c r="O75">
+        <v>5273.8969999999999</v>
+      </c>
+      <c r="P75">
+        <v>3345.9250000000002</v>
+      </c>
+      <c r="Q75">
+        <v>-52.747</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4933.4390000000003</v>
+      </c>
+      <c r="U75">
+        <v>1055.4570000000001</v>
+      </c>
+      <c r="V75">
+        <v>158.905</v>
+      </c>
+      <c r="W75">
+        <v>-30.802</v>
+      </c>
+      <c r="X75">
+        <v>-194.584</v>
+      </c>
+      <c r="Y75">
+        <v>80.558999999999997</v>
+      </c>
+      <c r="Z75">
+        <v>-1.2889999999999999</v>
+      </c>
+      <c r="AA75">
+        <v>166.75700000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>241.041</v>
+      </c>
+      <c r="D76">
+        <v>2488.9850000000001</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>585.05200000000002</v>
+      </c>
+      <c r="G76">
+        <v>9248.5450000000001</v>
+      </c>
+      <c r="H76">
+        <v>10095.537</v>
+      </c>
+      <c r="I76">
+        <v>380.363</v>
+      </c>
+      <c r="J76">
+        <v>2740.3249999999998</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2189.6990000000001</v>
+      </c>
+      <c r="O76">
+        <v>5025.7299999999996</v>
+      </c>
+      <c r="P76">
+        <v>3070.9879999999998</v>
+      </c>
+      <c r="Q76">
+        <v>-421.67899999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5069.8069999999998</v>
+      </c>
+      <c r="U76">
+        <v>631.30899999999997</v>
+      </c>
+      <c r="V76">
+        <v>146.80199999999999</v>
+      </c>
+      <c r="W76">
+        <v>-30.818000000000001</v>
+      </c>
+      <c r="X76">
+        <v>-392.178</v>
+      </c>
+      <c r="Y76">
+        <v>95.706000000000003</v>
+      </c>
+      <c r="Z76">
+        <v>-3.375</v>
+      </c>
+      <c r="AA76">
+        <v>241.041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>273.10399999999998</v>
+      </c>
+      <c r="D77">
+        <v>2710.3649999999998</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>650.16399999999999</v>
+      </c>
+      <c r="G77">
+        <v>9456.0810000000001</v>
+      </c>
+      <c r="H77">
+        <v>10264.513000000001</v>
+      </c>
+      <c r="I77">
+        <v>389.84300000000002</v>
+      </c>
+      <c r="J77">
+        <v>2744.181</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1910.057</v>
+      </c>
+      <c r="O77">
+        <v>5082.9210000000003</v>
+      </c>
+      <c r="P77">
+        <v>3089.2710000000002</v>
+      </c>
+      <c r="Q77">
+        <v>109.37</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5181.5919999999996</v>
+      </c>
+      <c r="U77">
+        <v>736.98599999999999</v>
+      </c>
+      <c r="V77">
+        <v>277.07299999999998</v>
+      </c>
+      <c r="W77">
+        <v>-30.614999999999998</v>
+      </c>
+      <c r="X77">
+        <v>-150.68199999999999</v>
+      </c>
+      <c r="Y77">
+        <v>95.010999999999996</v>
+      </c>
+      <c r="Z77">
+        <v>-3.637</v>
+      </c>
+      <c r="AA77">
+        <v>273.10399999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>335.798</v>
+      </c>
+      <c r="D78">
+        <v>3016.913</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>705.71600000000001</v>
+      </c>
+      <c r="G78">
+        <v>10147.665000000001</v>
+      </c>
+      <c r="H78">
+        <v>10715.597</v>
+      </c>
+      <c r="I78">
+        <v>384.089</v>
+      </c>
+      <c r="J78">
+        <v>2765.04</v>
+      </c>
+      <c r="K78">
+        <v>51.826999999999998</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1794.269</v>
+      </c>
+      <c r="O78">
+        <v>5257.4170000000004</v>
+      </c>
+      <c r="P78">
+        <v>3235.2809999999999</v>
+      </c>
+      <c r="Q78">
+        <v>482.81200000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>5245</v>
+      </c>
+      <c r="T78">
+        <v>5458.18</v>
+      </c>
+      <c r="U78">
+        <v>1217.913</v>
+      </c>
+      <c r="V78">
+        <v>493.22199999999998</v>
+      </c>
+      <c r="W78">
+        <v>-30.114999999999998</v>
+      </c>
+      <c r="X78">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>91.408000000000001</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>335.798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>203.71100000000001</v>
+      </c>
+      <c r="D79">
+        <v>2294.98</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>555.59900000000005</v>
+      </c>
+      <c r="G79">
+        <v>10573.132</v>
+      </c>
+      <c r="H79">
+        <v>11423.374</v>
+      </c>
+      <c r="I79">
+        <v>429.72399999999999</v>
+      </c>
+      <c r="J79">
+        <v>2755.9319999999998</v>
+      </c>
+      <c r="K79">
+        <v>700</v>
+      </c>
+      <c r="L79">
+        <v>-56.573</v>
+      </c>
+      <c r="M79">
+        <v>-9.2449999999999992</v>
+      </c>
+      <c r="N79">
+        <v>2709.1039999999998</v>
+      </c>
+      <c r="O79">
+        <v>5892.9830000000002</v>
+      </c>
+      <c r="P79">
+        <v>3823.09</v>
+      </c>
+      <c r="Q79">
+        <v>599.79700000000003</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5530.3909999999996</v>
+      </c>
+      <c r="U79">
+        <v>1816.778</v>
+      </c>
+      <c r="V79">
+        <v>204.61500000000001</v>
+      </c>
+      <c r="W79">
+        <v>-32.74</v>
+      </c>
+      <c r="X79">
+        <v>490.97800000000001</v>
+      </c>
+      <c r="Y79">
+        <v>82.974000000000004</v>
+      </c>
+      <c r="Z79">
+        <v>5.8369999999999997</v>
+      </c>
+      <c r="AA79">
+        <v>203.71100000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>348.62</v>
+      </c>
+      <c r="D80">
+        <v>2593.7809999999999</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>659.29499999999996</v>
+      </c>
+      <c r="G80">
+        <v>10146.396000000001</v>
+      </c>
+      <c r="H80">
+        <v>10958.485000000001</v>
+      </c>
+      <c r="I80">
+        <v>295.24900000000002</v>
+      </c>
+      <c r="J80">
+        <v>2770.6179999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1913.6489999999999</v>
+      </c>
+      <c r="O80">
+        <v>5106.817</v>
+      </c>
+      <c r="P80">
+        <v>3128.7060000000001</v>
+      </c>
+      <c r="Q80">
+        <v>-153.45699999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5851.6679999999997</v>
+      </c>
+      <c r="U80">
+        <v>1658.53</v>
+      </c>
+      <c r="V80">
+        <v>603.25699999999995</v>
+      </c>
+      <c r="W80">
+        <v>-32.591999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-747.06</v>
+      </c>
+      <c r="Y80">
+        <v>87.51</v>
+      </c>
+      <c r="Z80">
+        <v>7.1180000000000003</v>
+      </c>
+      <c r="AA80">
+        <v>348.62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>416.39699999999999</v>
+      </c>
+      <c r="D81">
+        <v>2954.9569999999999</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>759.96299999999997</v>
+      </c>
+      <c r="G81">
+        <v>10589.5</v>
+      </c>
+      <c r="H81">
+        <v>11365.022000000001</v>
+      </c>
+      <c r="I81">
+        <v>342.27699999999999</v>
+      </c>
+      <c r="J81">
+        <v>2778.97</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1853.624</v>
+      </c>
+      <c r="O81">
+        <v>5125.0069999999996</v>
+      </c>
+      <c r="P81">
+        <v>3125.1410000000001</v>
+      </c>
+      <c r="Q81">
+        <v>416.41199999999998</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>6240.0150000000003</v>
+      </c>
+      <c r="U81">
+        <v>2067.2759999999998</v>
+      </c>
+      <c r="V81">
+        <v>460.75299999999999</v>
+      </c>
+      <c r="W81">
+        <v>-32.423999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-40.612000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>88.766999999999996</v>
+      </c>
+      <c r="Z81">
+        <v>6.3209999999999997</v>
+      </c>
+      <c r="AA81">
+        <v>416.39800000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>438.11099999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3192.364</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>811.26099999999997</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>11654.201999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>12205.498</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>426.81599999999997</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2752.3020000000001</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>84.504999999999995</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1944.403</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5635.509</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3340.6770000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>518.02700000000004</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5249</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>6569.9889999999996</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2582.2049999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>515.71699999999998</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-32.423000000000002</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>1.0780000000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>70.210999999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>7.91</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>438.11099999999999</v>
       </c>
     </row>
